--- a/siteautoveiculos2025.xlsx
+++ b/siteautoveiculos2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anfaveacombr-my.sharepoint.com/personal/arquivos_anfavea_com_br/Documents/ANFAVEA/ESTATÍSTICA/COLETIVA2025/ParaSite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anfaveacombr-my.sharepoint.com/personal/eduardo_anfavea_com_br/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{E0A5C721-3787-43DC-B1BF-F75288A22D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55E03481-635E-4BA0-8CE7-7556F556A2B9}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{19F6E9F0-2D93-4350-917A-14345580D2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B74271E-0FB9-42AE-8942-0753B5C8BFFA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Índice" sheetId="1" r:id="rId1"/>
@@ -1589,71 +1589,71 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="2:3" s="89" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" s="89" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="B3" s="50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:3" s="89" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" s="89" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="B4" s="50"/>
     </row>
-    <row r="5" spans="2:3" s="89" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" s="89" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B5" s="50"/>
     </row>
-    <row r="6" spans="2:3" s="89" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" s="89" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="90" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="2:3" s="89" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" s="89" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="90" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="2:3" s="89" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" s="89" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="90" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="2:3" s="89" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" s="89" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="90" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="2:3" s="89" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" s="89" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="90" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:3" s="89" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3" s="89" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B11" s="90" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
     </row>
   </sheetData>
@@ -1669,20 +1669,20 @@
   </sheetPr>
   <dimension ref="B2:T65"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="10.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="10.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" s="1" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B2" s="91" t="s">
         <v>115</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="2:17" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B3" s="19"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -1720,8 +1720,8 @@
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:17" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:17" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
         <v>26</v>
@@ -1743,7 +1743,7 @@
       <c r="P5" s="113"/>
       <c r="Q5" s="50"/>
     </row>
-    <row r="6" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
       <c r="D6" s="48" t="s">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
@@ -1805,10 +1805,10 @@
         <v>171391</v>
       </c>
       <c r="H7" s="20">
-        <v>186008</v>
+        <v>185996</v>
       </c>
       <c r="I7" s="20">
-        <v>0</v>
+        <v>174285</v>
       </c>
       <c r="J7" s="20">
         <v>0</v>
@@ -1829,11 +1829,11 @@
         <v>0</v>
       </c>
       <c r="P7" s="20">
-        <v>796344</v>
+        <v>970617</v>
       </c>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>175466</v>
       </c>
       <c r="I8" s="21">
-        <v>0</v>
+        <v>164278</v>
       </c>
       <c r="J8" s="21">
         <v>0</v>
@@ -1875,11 +1875,11 @@
         <v>0</v>
       </c>
       <c r="P8" s="21">
-        <v>743137</v>
+        <v>907415</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16"/>
       <c r="C9" s="14" t="s">
         <v>30</v>
@@ -1900,7 +1900,7 @@
         <v>139305</v>
       </c>
       <c r="I9" s="15">
-        <v>0</v>
+        <v>131367</v>
       </c>
       <c r="J9" s="15">
         <v>0</v>
@@ -1921,11 +1921,11 @@
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <v>587211</v>
+        <v>718578</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="16"/>
       <c r="C10" s="14" t="s">
         <v>31</v>
@@ -1946,7 +1946,7 @@
         <v>36161</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
+        <v>32911</v>
       </c>
       <c r="J10" s="15">
         <v>0</v>
@@ -1967,11 +1967,11 @@
         <v>0</v>
       </c>
       <c r="P10" s="15">
-        <v>155926</v>
+        <v>188837</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
@@ -1989,10 +1989,10 @@
         <v>8702</v>
       </c>
       <c r="H11" s="21">
-        <v>8600</v>
+        <v>8588</v>
       </c>
       <c r="I11" s="21">
-        <v>0</v>
+        <v>8044</v>
       </c>
       <c r="J11" s="21">
         <v>0</v>
@@ -2013,11 +2013,11 @@
         <v>0</v>
       </c>
       <c r="P11" s="21">
-        <v>43556</v>
+        <v>51588</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16"/>
       <c r="C12" s="14" t="s">
         <v>33</v>
@@ -2038,7 +2038,7 @@
         <v>48</v>
       </c>
       <c r="I12" s="15">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J12" s="15">
         <v>0</v>
@@ -2059,11 +2059,11 @@
         <v>0</v>
       </c>
       <c r="P12" s="15">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16"/>
       <c r="C13" s="14" t="s">
         <v>34</v>
@@ -2081,10 +2081,10 @@
         <v>742</v>
       </c>
       <c r="H13" s="15">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I13" s="15">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="J13" s="15">
         <v>0</v>
@@ -2105,11 +2105,11 @@
         <v>0</v>
       </c>
       <c r="P13" s="15">
-        <v>3892</v>
+        <v>4496</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16"/>
       <c r="C14" s="14" t="s">
         <v>35</v>
@@ -2130,7 +2130,7 @@
         <v>974</v>
       </c>
       <c r="I14" s="15">
-        <v>0</v>
+        <v>1073</v>
       </c>
       <c r="J14" s="15">
         <v>0</v>
@@ -2151,11 +2151,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="15">
-        <v>4044</v>
+        <v>5117</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16"/>
       <c r="C15" s="14" t="s">
         <v>36</v>
@@ -2176,7 +2176,7 @@
         <v>3008</v>
       </c>
       <c r="I15" s="15">
-        <v>0</v>
+        <v>2753</v>
       </c>
       <c r="J15" s="15">
         <v>0</v>
@@ -2197,11 +2197,11 @@
         <v>0</v>
       </c>
       <c r="P15" s="15">
-        <v>14183</v>
+        <v>16936</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16"/>
       <c r="C16" s="14" t="s">
         <v>37</v>
@@ -2219,10 +2219,10 @@
         <v>4207</v>
       </c>
       <c r="H16" s="15">
-        <v>3820</v>
+        <v>3809</v>
       </c>
       <c r="I16" s="15">
-        <v>0</v>
+        <v>3547</v>
       </c>
       <c r="J16" s="15">
         <v>0</v>
@@ -2243,11 +2243,11 @@
         <v>0</v>
       </c>
       <c r="P16" s="15">
-        <v>21152</v>
+        <v>24688</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>1942</v>
       </c>
       <c r="I17" s="22">
-        <v>0</v>
+        <v>1963</v>
       </c>
       <c r="J17" s="22">
         <v>0</v>
@@ -2289,18 +2289,18 @@
         <v>0</v>
       </c>
       <c r="P17" s="22">
-        <v>9651</v>
+        <v>11614</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:17" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:17" s="1" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B21" s="91" t="s">
         <v>116</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
     </row>
-    <row r="22" spans="2:17" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B22" s="19"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -2338,8 +2338,8 @@
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
     </row>
-    <row r="23" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:17" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:17" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
         <v>26</v>
@@ -2361,7 +2361,7 @@
       <c r="P24" s="113"/>
       <c r="Q24" s="50"/>
     </row>
-    <row r="25" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="12"/>
       <c r="C25" s="11"/>
       <c r="D25" s="48" t="s">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
         <v>28</v>
       </c>
@@ -2423,10 +2423,10 @@
         <v>37313</v>
       </c>
       <c r="H26" s="20">
-        <v>39702</v>
+        <v>39713</v>
       </c>
       <c r="I26" s="20">
-        <v>0</v>
+        <v>38647</v>
       </c>
       <c r="J26" s="20">
         <v>0</v>
@@ -2447,11 +2447,11 @@
         <v>0</v>
       </c>
       <c r="P26" s="20">
-        <v>189814</v>
+        <v>228472</v>
       </c>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
         <v>29</v>
       </c>
@@ -2469,10 +2469,10 @@
         <v>36665</v>
       </c>
       <c r="H27" s="21">
-        <v>39140</v>
+        <v>39151</v>
       </c>
       <c r="I27" s="21">
-        <v>0</v>
+        <v>38180</v>
       </c>
       <c r="J27" s="21">
         <v>0</v>
@@ -2493,11 +2493,11 @@
         <v>0</v>
       </c>
       <c r="P27" s="21">
-        <v>187094</v>
+        <v>225285</v>
       </c>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="16"/>
       <c r="C28" s="14" t="s">
         <v>30</v>
@@ -2515,10 +2515,10 @@
         <v>25277</v>
       </c>
       <c r="H28" s="15">
-        <v>28242</v>
+        <v>28253</v>
       </c>
       <c r="I28" s="15">
-        <v>0</v>
+        <v>27752</v>
       </c>
       <c r="J28" s="15">
         <v>0</v>
@@ -2539,11 +2539,11 @@
         <v>0</v>
       </c>
       <c r="P28" s="21">
-        <v>132294</v>
+        <v>160057</v>
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="16"/>
       <c r="C29" s="14" t="s">
         <v>31</v>
@@ -2564,7 +2564,7 @@
         <v>10898</v>
       </c>
       <c r="I29" s="15">
-        <v>0</v>
+        <v>10428</v>
       </c>
       <c r="J29" s="15">
         <v>0</v>
@@ -2585,11 +2585,11 @@
         <v>0</v>
       </c>
       <c r="P29" s="21">
-        <v>54800</v>
+        <v>65228</v>
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="13" t="s">
         <v>32</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>561</v>
       </c>
       <c r="I30" s="21">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="J30" s="21">
         <v>0</v>
@@ -2631,11 +2631,11 @@
         <v>0</v>
       </c>
       <c r="P30" s="21">
-        <v>2699</v>
+        <v>3166</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16"/>
       <c r="C31" s="14" t="s">
         <v>33</v>
@@ -2656,7 +2656,7 @@
         <v>476</v>
       </c>
       <c r="I31" s="15">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="J31" s="15">
         <v>0</v>
@@ -2677,11 +2677,11 @@
         <v>0</v>
       </c>
       <c r="P31" s="21">
-        <v>2327</v>
+        <v>2668</v>
       </c>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="16"/>
       <c r="C32" s="14" t="s">
         <v>34</v>
@@ -2702,7 +2702,7 @@
         <v>26</v>
       </c>
       <c r="I32" s="15">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J32" s="15">
         <v>0</v>
@@ -2723,11 +2723,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="21">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="16"/>
       <c r="C33" s="14" t="s">
         <v>35</v>
@@ -2748,7 +2748,7 @@
         <v>36</v>
       </c>
       <c r="I33" s="15">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J33" s="15">
         <v>0</v>
@@ -2769,11 +2769,11 @@
         <v>0</v>
       </c>
       <c r="P33" s="21">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="16"/>
       <c r="C34" s="14" t="s">
         <v>36</v>
@@ -2794,7 +2794,7 @@
         <v>21</v>
       </c>
       <c r="I34" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J34" s="15">
         <v>0</v>
@@ -2815,11 +2815,11 @@
         <v>0</v>
       </c>
       <c r="P34" s="21">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="16"/>
       <c r="C35" s="14" t="s">
         <v>37</v>
@@ -2840,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J35" s="15">
         <v>0</v>
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="P35" s="21">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="10" t="s">
         <v>38</v>
       </c>
@@ -2911,14 +2911,14 @@
       </c>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="91" t="s">
         <v>117</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="P40" s="17"/>
       <c r="Q40" s="17"/>
     </row>
-    <row r="41" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="19"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -2956,8 +2956,8 @@
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
     </row>
-    <row r="42" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="6"/>
       <c r="C43" s="7" t="s">
         <v>26</v>
@@ -2979,7 +2979,7 @@
       <c r="P43" s="113"/>
       <c r="Q43" s="54"/>
     </row>
-    <row r="44" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="12"/>
       <c r="C44" s="11"/>
       <c r="D44" s="48" t="s">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="9" t="s">
         <v>28</v>
       </c>
@@ -3041,10 +3041,10 @@
         <v>208704</v>
       </c>
       <c r="H45" s="20">
-        <v>225710</v>
+        <v>225709</v>
       </c>
       <c r="I45" s="20">
-        <v>0</v>
+        <v>212932</v>
       </c>
       <c r="J45" s="20">
         <v>0</v>
@@ -3065,11 +3065,11 @@
         <v>0</v>
       </c>
       <c r="P45" s="20">
-        <v>986158</v>
+        <v>1199089</v>
       </c>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="13" t="s">
         <v>29</v>
       </c>
@@ -3087,10 +3087,10 @@
         <v>197158</v>
       </c>
       <c r="H46" s="21">
-        <v>214606</v>
+        <v>214617</v>
       </c>
       <c r="I46" s="21">
-        <v>0</v>
+        <v>202458</v>
       </c>
       <c r="J46" s="21">
         <v>0</v>
@@ -3111,11 +3111,11 @@
         <v>0</v>
       </c>
       <c r="P46" s="21">
-        <v>930231</v>
+        <v>1132700</v>
       </c>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="16"/>
       <c r="C47" s="14" t="s">
         <v>30</v>
@@ -3133,10 +3133,10 @@
         <v>152133</v>
       </c>
       <c r="H47" s="15">
-        <v>167547</v>
+        <v>167558</v>
       </c>
       <c r="I47" s="15">
-        <v>0</v>
+        <v>159119</v>
       </c>
       <c r="J47" s="15">
         <v>0</v>
@@ -3157,11 +3157,11 @@
         <v>0</v>
       </c>
       <c r="P47" s="15">
-        <v>719505</v>
+        <v>878635</v>
       </c>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="16"/>
       <c r="C48" s="14" t="s">
         <v>31</v>
@@ -3182,7 +3182,7 @@
         <v>47059</v>
       </c>
       <c r="I48" s="15">
-        <v>0</v>
+        <v>43339</v>
       </c>
       <c r="J48" s="15">
         <v>0</v>
@@ -3203,11 +3203,11 @@
         <v>0</v>
       </c>
       <c r="P48" s="15">
-        <v>210726</v>
+        <v>254065</v>
       </c>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="13" t="s">
         <v>32</v>
       </c>
@@ -3225,10 +3225,10 @@
         <v>9345</v>
       </c>
       <c r="H49" s="21">
-        <v>9161</v>
+        <v>9149</v>
       </c>
       <c r="I49" s="21">
-        <v>0</v>
+        <v>8511</v>
       </c>
       <c r="J49" s="21">
         <v>0</v>
@@ -3249,11 +3249,11 @@
         <v>0</v>
       </c>
       <c r="P49" s="21">
-        <v>46255</v>
+        <v>54754</v>
       </c>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="16"/>
       <c r="C50" s="14" t="s">
         <v>33</v>
@@ -3274,7 +3274,7 @@
         <v>524</v>
       </c>
       <c r="I50" s="15">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="J50" s="15">
         <v>0</v>
@@ -3295,11 +3295,11 @@
         <v>0</v>
       </c>
       <c r="P50" s="15">
-        <v>2612</v>
+        <v>3019</v>
       </c>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="16"/>
       <c r="C51" s="14" t="s">
         <v>34</v>
@@ -3317,10 +3317,10 @@
         <v>768</v>
       </c>
       <c r="H51" s="15">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I51" s="15">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="J51" s="15">
         <v>0</v>
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="P51" s="15">
-        <v>4067</v>
+        <v>4738</v>
       </c>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="16"/>
       <c r="C52" s="14" t="s">
         <v>35</v>
@@ -3366,7 +3366,7 @@
         <v>1010</v>
       </c>
       <c r="I52" s="15">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="J52" s="15">
         <v>0</v>
@@ -3387,11 +3387,11 @@
         <v>0</v>
       </c>
       <c r="P52" s="15">
-        <v>4201</v>
+        <v>5305</v>
       </c>
       <c r="Q52" s="3"/>
     </row>
-    <row r="53" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="16"/>
       <c r="C53" s="14" t="s">
         <v>36</v>
@@ -3412,7 +3412,7 @@
         <v>3029</v>
       </c>
       <c r="I53" s="15">
-        <v>0</v>
+        <v>2773</v>
       </c>
       <c r="J53" s="15">
         <v>0</v>
@@ -3433,11 +3433,11 @@
         <v>0</v>
       </c>
       <c r="P53" s="15">
-        <v>14211</v>
+        <v>16984</v>
       </c>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="16"/>
       <c r="C54" s="14" t="s">
         <v>37</v>
@@ -3455,10 +3455,10 @@
         <v>4211</v>
       </c>
       <c r="H54" s="15">
-        <v>3822</v>
+        <v>3811</v>
       </c>
       <c r="I54" s="15">
-        <v>0</v>
+        <v>3555</v>
       </c>
       <c r="J54" s="15">
         <v>0</v>
@@ -3479,11 +3479,11 @@
         <v>0</v>
       </c>
       <c r="P54" s="15">
-        <v>21164</v>
+        <v>24708</v>
       </c>
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="10" t="s">
         <v>38</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>1943</v>
       </c>
       <c r="I55" s="22">
-        <v>0</v>
+        <v>1963</v>
       </c>
       <c r="J55" s="22">
         <v>0</v>
@@ -3525,16 +3525,16 @@
         <v>0</v>
       </c>
       <c r="P55" s="43">
-        <v>9672</v>
+        <v>11635</v>
       </c>
       <c r="Q55" s="3"/>
     </row>
-    <row r="56" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="114"/>
       <c r="C57" s="115"/>
       <c r="D57" s="115"/>
@@ -3555,7 +3555,7 @@
       <c r="S57" s="115"/>
       <c r="T57" s="115"/>
     </row>
-    <row r="58" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -3571,7 +3571,7 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
     </row>
-    <row r="59" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="91" t="s">
         <v>114</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="19"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3607,7 +3607,7 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -3623,7 +3623,7 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="24"/>
       <c r="C62" s="27"/>
       <c r="D62" s="25" t="s">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="Q62" s="3"/>
     </row>
-    <row r="63" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:20" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="24" t="s">
         <v>40</v>
       </c>
@@ -3685,10 +3685,10 @@
         <v>17.87843069610549</v>
       </c>
       <c r="H63" s="55">
-        <v>17.589827654955474</v>
+        <v>17.594779118245174</v>
       </c>
       <c r="I63" s="55">
-        <v>0</v>
+        <v>18.149925797907311</v>
       </c>
       <c r="J63" s="55">
         <v>0</v>
@@ -3709,11 +3709,11 @@
         <v>0</v>
       </c>
       <c r="P63" s="55">
-        <v>19.247828441284256</v>
+        <v>19.0537983419079</v>
       </c>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
         <v>39</v>
       </c>
@@ -3732,7 +3732,7 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
     </row>
-    <row r="65" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -3768,20 +3768,20 @@
   <dimension ref="B2:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="10.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="10.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" s="1" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B2" s="91" t="s">
         <v>118</v>
       </c>
@@ -3801,14 +3801,14 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="2:18" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B3" s="19"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:18" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
         <v>26</v>
@@ -3830,7 +3830,7 @@
       <c r="P5" s="113"/>
       <c r="Q5" s="50"/>
     </row>
-    <row r="6" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
       <c r="D6" s="48" t="s">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="23" t="s">
         <v>28</v>
       </c>
@@ -3889,13 +3889,13 @@
         <v>136823</v>
       </c>
       <c r="G7" s="34">
-        <v>147452</v>
+        <v>147449</v>
       </c>
       <c r="H7" s="34">
-        <v>160612</v>
+        <v>160604</v>
       </c>
       <c r="I7" s="34">
-        <v>0</v>
+        <v>153221</v>
       </c>
       <c r="J7" s="34">
         <v>0</v>
@@ -3916,11 +3916,11 @@
         <v>0</v>
       </c>
       <c r="P7" s="35">
-        <v>695013</v>
+        <v>848223</v>
       </c>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="2:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
@@ -3935,13 +3935,13 @@
         <v>72262</v>
       </c>
       <c r="G8" s="15">
-        <v>81544</v>
+        <v>81541</v>
       </c>
       <c r="H8" s="15">
-        <v>91255</v>
+        <v>91247</v>
       </c>
       <c r="I8" s="15">
-        <v>0</v>
+        <v>88459</v>
       </c>
       <c r="J8" s="15">
         <v>0</v>
@@ -3962,11 +3962,11 @@
         <v>0</v>
       </c>
       <c r="P8" s="15">
-        <v>368693</v>
+        <v>457141</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="2:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="30" t="s">
         <v>41</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>66241</v>
       </c>
       <c r="I9" s="15">
-        <v>0</v>
+        <v>61208</v>
       </c>
       <c r="J9" s="15">
         <v>0</v>
@@ -4008,11 +4008,11 @@
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <v>310918</v>
+        <v>372126</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="2:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="31" t="s">
         <v>42</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>3116</v>
       </c>
       <c r="I10" s="33">
-        <v>0</v>
+        <v>3554</v>
       </c>
       <c r="J10" s="33">
         <v>0</v>
@@ -4054,19 +4054,19 @@
         <v>0</v>
       </c>
       <c r="P10" s="33">
-        <v>15402</v>
+        <v>18956</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:18" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:18" s="1" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B15" s="91" t="s">
         <v>118</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="2:18" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B16" s="19" t="s">
         <v>43</v>
       </c>
@@ -4102,7 +4102,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4117,7 +4117,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="24" t="s">
         <v>44</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="56"/>
       <c r="C19" s="36" t="s">
         <v>12</v>
@@ -4177,13 +4177,13 @@
         <v>52.814219831461088</v>
       </c>
       <c r="G19" s="61">
-        <v>55.302064400618512</v>
+        <v>55.301154975618694</v>
       </c>
       <c r="H19" s="61">
-        <v>56.817049784574003</v>
+        <v>56.8148987571916</v>
       </c>
       <c r="I19" s="61">
-        <v>0</v>
+        <v>57.732947833521521</v>
       </c>
       <c r="J19" s="61">
         <v>0</v>
@@ -4204,10 +4204,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="61">
-        <v>53.04836024649898</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53.893964205167741</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="57"/>
       <c r="C20" s="46" t="s">
         <v>45</v>
@@ -4222,13 +4222,13 @@
         <v>45.006322036499711</v>
       </c>
       <c r="G20" s="29">
-        <v>42.596912893687438</v>
+        <v>42.597779571241581</v>
       </c>
       <c r="H20" s="29">
-        <v>41.242871018354791</v>
+        <v>41.24492540659012</v>
       </c>
       <c r="I20" s="29">
-        <v>0</v>
+        <v>39.94752677505042</v>
       </c>
       <c r="J20" s="29">
         <v>0</v>
@@ -4249,10 +4249,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="29">
-        <v>44.735566097324799</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43.871246122776675</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="58"/>
       <c r="C21" s="47" t="s">
         <v>46</v>
@@ -4267,13 +4267,13 @@
         <v>2.1794581320392039</v>
       </c>
       <c r="G21" s="62">
-        <v>2.1010227056940565</v>
+        <v>2.1010654531397299</v>
       </c>
       <c r="H21" s="62">
-        <v>1.9400791970712026</v>
+        <v>1.9401758362182762</v>
       </c>
       <c r="I21" s="62">
-        <v>0</v>
+        <v>2.3195253914280678</v>
       </c>
       <c r="J21" s="62">
         <v>0</v>
@@ -4294,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="62">
-        <v>2.2160736561762153</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+        <v>2.2347896720555798</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
@@ -4319,20 +4319,20 @@
   <dimension ref="B2:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="10.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="10.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B2" s="91" t="s">
         <v>119</v>
       </c>
@@ -4350,7 +4350,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B3" s="19"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4366,7 +4366,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -4381,7 +4381,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
         <v>26</v>
@@ -4402,7 +4402,7 @@
       <c r="O5" s="112"/>
       <c r="P5" s="113"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
       <c r="D6" s="25" t="s">
@@ -4445,7 +4445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="56"/>
       <c r="C7" s="36" t="s">
         <v>47</v>
@@ -4466,7 +4466,7 @@
         <v>8549</v>
       </c>
       <c r="I7" s="101">
-        <v>0</v>
+        <v>8276</v>
       </c>
       <c r="J7" s="101">
         <v>0</v>
@@ -4487,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="101">
-        <v>42736</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51012</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="57"/>
       <c r="C8" s="37" t="s">
         <v>48</v>
@@ -4511,7 +4511,7 @@
         <v>6958</v>
       </c>
       <c r="I8" s="15">
-        <v>0</v>
+        <v>5847</v>
       </c>
       <c r="J8" s="15">
         <v>0</v>
@@ -4532,10 +4532,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="15">
-        <v>24636</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30483</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="56"/>
       <c r="C9" s="36" t="s">
         <v>110</v>
@@ -4544,19 +4544,19 @@
         <v>6264</v>
       </c>
       <c r="E9" s="15">
-        <v>6005</v>
+        <v>6013</v>
       </c>
       <c r="F9" s="15">
-        <v>6325</v>
+        <v>6474</v>
       </c>
       <c r="G9" s="15">
-        <v>7479</v>
+        <v>7688</v>
       </c>
       <c r="H9" s="15">
-        <v>8160</v>
+        <v>8840</v>
       </c>
       <c r="I9" s="15">
-        <v>0</v>
+        <v>8448</v>
       </c>
       <c r="J9" s="15">
         <v>0</v>
@@ -4577,10 +4577,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <v>34233</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43727</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="56"/>
       <c r="C10" s="36" t="s">
         <v>113</v>
@@ -4589,19 +4589,19 @@
         <v>6537</v>
       </c>
       <c r="E10" s="15">
-        <v>5740</v>
+        <v>5732</v>
       </c>
       <c r="F10" s="15">
-        <v>6782</v>
+        <v>6633</v>
       </c>
       <c r="G10" s="15">
-        <v>7646</v>
+        <v>7437</v>
       </c>
       <c r="H10" s="15">
-        <v>7144</v>
+        <v>7155</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
+        <v>7081</v>
       </c>
       <c r="J10" s="15">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="15">
-        <v>33849</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40575</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="57"/>
       <c r="C11" s="37" t="s">
         <v>13</v>
@@ -4643,10 +4643,10 @@
         <v>146766</v>
       </c>
       <c r="H11" s="15">
-        <v>162239</v>
+        <v>162238</v>
       </c>
       <c r="I11" s="15">
-        <v>0</v>
+        <v>153037</v>
       </c>
       <c r="J11" s="15">
         <v>0</v>
@@ -4667,10 +4667,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="42">
-        <v>694493</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>847529</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="58"/>
       <c r="C12" s="38" t="s">
         <v>14</v>
@@ -4688,10 +4688,10 @@
         <v>21653</v>
       </c>
       <c r="H12" s="41">
-        <v>21556</v>
+        <v>21557</v>
       </c>
       <c r="I12" s="41">
-        <v>0</v>
+        <v>19769</v>
       </c>
       <c r="J12" s="41">
         <v>0</v>
@@ -4712,15 +4712,15 @@
         <v>0</v>
       </c>
       <c r="P12" s="33">
-        <v>100284</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+        <v>120054</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4735,7 +4735,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="17" spans="2:16" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B17" s="91" t="s">
         <v>119</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="2:16" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B18" s="19" t="s">
         <v>43</v>
       </c>
@@ -4771,7 +4771,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -4786,7 +4786,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
         <v>50</v>
@@ -4807,7 +4807,7 @@
       <c r="O20" s="112"/>
       <c r="P20" s="113"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
       <c r="D21" s="25" t="s">
@@ -4850,7 +4850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="60"/>
       <c r="C22" s="39" t="s">
         <v>47</v>
@@ -4868,10 +4868,10 @@
         <v>4.5222613335497419</v>
       </c>
       <c r="H22" s="61">
-        <v>3.9835792102737111</v>
+        <v>3.9707938336344681</v>
       </c>
       <c r="I22" s="61">
-        <v>0</v>
+        <v>4.0877614122435268</v>
       </c>
       <c r="J22" s="61">
         <v>0</v>
@@ -4892,10 +4892,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="61">
-        <v>4.5941276951638894</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4.5008734934443879</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="56"/>
       <c r="C23" s="36" t="s">
         <v>48</v>
@@ -4913,10 +4913,10 @@
         <v>2.382860446951176</v>
       </c>
       <c r="H23" s="29">
-        <v>3.2422206275686607</v>
+        <v>3.2318146560332939</v>
       </c>
       <c r="I23" s="29">
-        <v>0</v>
+        <v>2.8880064013276829</v>
       </c>
       <c r="J23" s="29">
         <v>0</v>
@@ -4937,10 +4937,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="29">
-        <v>2.6483744360271801</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.6895657237643156</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="57"/>
       <c r="C24" s="37" t="s">
         <v>110</v>
@@ -4949,19 +4949,19 @@
         <v>3.9136791332925136</v>
       </c>
       <c r="E24" s="29">
-        <v>3.4503165902483306</v>
+        <v>3.4549131818756393</v>
       </c>
       <c r="F24" s="29">
-        <v>3.4305829007815767</v>
+        <v>3.5113982133849682</v>
       </c>
       <c r="G24" s="29">
-        <v>3.7934042747441139</v>
+        <v>3.8994106249809799</v>
       </c>
       <c r="H24" s="29">
-        <v>3.8023168038172281</v>
+        <v>4.1059559585131238</v>
       </c>
       <c r="I24" s="29">
-        <v>0</v>
+        <v>4.1727173043297867</v>
       </c>
       <c r="J24" s="29">
         <v>0</v>
@@ -4982,10 +4982,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="29">
-        <v>3.6800536640898871</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.8581058427005948</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="57"/>
       <c r="C25" s="36" t="s">
         <v>113</v>
@@ -4994,19 +4994,19 @@
         <v>4.0842465667837109</v>
       </c>
       <c r="E25" s="29">
-        <v>3.2980544925937418</v>
+        <v>3.2934579009664335</v>
       </c>
       <c r="F25" s="29">
-        <v>3.6784526850752015</v>
+        <v>3.5976373724718096</v>
       </c>
       <c r="G25" s="29">
-        <v>3.8781079134501262</v>
+        <v>3.7721015632132606</v>
       </c>
       <c r="H25" s="29">
-        <v>3.3288910841262593</v>
+        <v>3.3233161632535522</v>
       </c>
       <c r="I25" s="29">
-        <v>0</v>
+        <v>3.497515534086082</v>
       </c>
       <c r="J25" s="29">
         <v>0</v>
@@ -5027,10 +5027,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="29">
-        <v>3.6387735949457718</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.5799996470733557</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="57"/>
       <c r="C26" s="37" t="s">
         <v>13</v>
@@ -5048,10 +5048,10 @@
         <v>74.44080382231509</v>
       </c>
       <c r="H26" s="29">
-        <v>75.598538717463626</v>
+        <v>75.355439230458387</v>
       </c>
       <c r="I26" s="29">
-        <v>0</v>
+        <v>75.589504983749706</v>
       </c>
       <c r="J26" s="29">
         <v>0</v>
@@ -5072,10 +5072,10 @@
         <v>0</v>
       </c>
       <c r="P26" s="29">
-        <v>74.65812255235528</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74.77889145741058</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="58"/>
       <c r="C27" s="38" t="s">
         <v>14</v>
@@ -5093,10 +5093,10 @@
         <v>10.982562208989744</v>
       </c>
       <c r="H27" s="62">
-        <v>10.04445355675051</v>
+        <v>10.012680158107173</v>
       </c>
       <c r="I27" s="62">
-        <v>0</v>
+        <v>9.7644943642632054</v>
       </c>
       <c r="J27" s="62">
         <v>0</v>
@@ -5117,15 +5117,15 @@
         <v>0</v>
       </c>
       <c r="P27" s="62">
-        <v>10.780548057417997</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+        <v>10.59256383560677</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B32" s="91" t="s">
         <v>120</v>
       </c>
@@ -5143,7 +5143,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="2:16" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B33" s="19"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -5159,7 +5159,7 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -5174,7 +5174,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
       <c r="C35" s="7" t="s">
         <v>26</v>
@@ -5195,7 +5195,7 @@
       <c r="O35" s="112"/>
       <c r="P35" s="113"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="12"/>
       <c r="C36" s="11"/>
       <c r="D36" s="25" t="s">
@@ -5238,7 +5238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="56"/>
       <c r="C37" s="36" t="s">
         <v>48</v>
@@ -5259,7 +5259,7 @@
         <v>61</v>
       </c>
       <c r="I37" s="40">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J37" s="40">
         <v>0</v>
@@ -5280,10 +5280,10 @@
         <v>0</v>
       </c>
       <c r="P37" s="42">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="56"/>
       <c r="C38" s="36" t="s">
         <v>111</v>
@@ -5304,7 +5304,7 @@
         <v>77</v>
       </c>
       <c r="I38" s="40">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J38" s="40">
         <v>0</v>
@@ -5325,10 +5325,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="42">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="58"/>
       <c r="C39" s="38" t="s">
         <v>14</v>
@@ -5349,7 +5349,7 @@
         <v>10954</v>
       </c>
       <c r="I39" s="41">
-        <v>0</v>
+        <v>10339</v>
       </c>
       <c r="J39" s="41">
         <v>0</v>
@@ -5370,15 +5370,15 @@
         <v>0</v>
       </c>
       <c r="P39" s="33">
-        <v>55175</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+        <v>65514</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B44" s="91" t="s">
         <v>120</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
     </row>
-    <row r="45" spans="2:16" ht="18" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B45" s="19" t="s">
         <v>43</v>
       </c>
@@ -5414,7 +5414,7 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -5429,7 +5429,7 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
     </row>
-    <row r="47" spans="2:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
       <c r="C47" s="7" t="s">
         <v>50</v>
@@ -5450,7 +5450,7 @@
       <c r="O47" s="112"/>
       <c r="P47" s="113"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" s="12"/>
       <c r="C48" s="11"/>
       <c r="D48" s="25" t="s">
@@ -5493,7 +5493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="56"/>
       <c r="C49" s="36" t="s">
         <v>48</v>
@@ -5514,7 +5514,7 @@
         <v>0.54994590695997114</v>
       </c>
       <c r="I49" s="40">
-        <v>0</v>
+        <v>0.71605881229711665</v>
       </c>
       <c r="J49" s="40">
         <v>0</v>
@@ -5535,10 +5535,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="42">
-        <v>0.79406241616739692</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.7817560137974664</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="56"/>
       <c r="C50" s="36" t="s">
         <v>111</v>
@@ -5559,7 +5559,7 @@
         <v>0.69419401370357015</v>
       </c>
       <c r="I50" s="40">
-        <v>0</v>
+        <v>0.57284704983769341</v>
       </c>
       <c r="J50" s="40">
         <v>0</v>
@@ -5580,10 +5580,10 @@
         <v>0</v>
       </c>
       <c r="P50" s="42">
-        <v>0.52937494411159791</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.53623341216165321</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="58"/>
       <c r="C51" s="38" t="s">
         <v>14</v>
@@ -5604,7 +5604,7 @@
         <v>98.755860079336458</v>
       </c>
       <c r="I51" s="41">
-        <v>0</v>
+        <v>98.711094137865189</v>
       </c>
       <c r="J51" s="41">
         <v>0</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="33">
-        <v>98.676562639721013</v>
+        <v>98.682010574040874</v>
       </c>
     </row>
   </sheetData>
@@ -5648,20 +5648,20 @@
   <dimension ref="B2:Q147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B2" s="91" t="s">
         <v>122</v>
       </c>
@@ -5681,7 +5681,7 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B3" s="19"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -5699,7 +5699,7 @@
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="5" spans="2:17" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
       <c r="C5" s="64" t="s">
         <v>26</v>
@@ -5721,7 +5721,7 @@
       <c r="P5" s="52"/>
       <c r="Q5" s="53"/>
     </row>
-    <row r="6" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="65"/>
       <c r="D6" s="11"/>
@@ -5765,7 +5765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="59" t="s">
         <v>28</v>
       </c>
@@ -5784,10 +5784,10 @@
         <v>208704</v>
       </c>
       <c r="I7" s="67">
-        <v>225710</v>
+        <v>225709</v>
       </c>
       <c r="J7" s="67">
-        <v>0</v>
+        <v>212932</v>
       </c>
       <c r="K7" s="67">
         <v>0</v>
@@ -5808,10 +5808,10 @@
         <v>0</v>
       </c>
       <c r="Q7" s="68">
-        <v>986158</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1199089</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="69" t="s">
         <v>30</v>
       </c>
@@ -5830,10 +5830,10 @@
         <v>152133</v>
       </c>
       <c r="I8" s="97">
-        <v>167547</v>
+        <v>167558</v>
       </c>
       <c r="J8" s="97">
-        <v>0</v>
+        <v>159119</v>
       </c>
       <c r="K8" s="97">
         <v>0</v>
@@ -5854,10 +5854,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="97">
-        <v>719505</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>878635</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16"/>
       <c r="C9" s="71" t="s">
         <v>51</v>
@@ -5879,7 +5879,7 @@
         <v>153098</v>
       </c>
       <c r="J9" s="102">
-        <v>0</v>
+        <v>145908</v>
       </c>
       <c r="K9" s="102">
         <v>0</v>
@@ -5900,10 +5900,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="102">
-        <v>660138</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>806046</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="72"/>
       <c r="C10" s="73"/>
       <c r="D10" s="14" t="s">
@@ -5925,7 +5925,7 @@
         <v>329</v>
       </c>
       <c r="J10" s="15">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="K10" s="15">
         <v>0</v>
@@ -5946,10 +5946,10 @@
         <v>0</v>
       </c>
       <c r="Q10" s="15">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="72"/>
       <c r="C11" s="73"/>
       <c r="D11" s="14" t="s">
@@ -5971,7 +5971,7 @@
         <v>1561</v>
       </c>
       <c r="J11" s="15">
-        <v>0</v>
+        <v>1447</v>
       </c>
       <c r="K11" s="15">
         <v>0</v>
@@ -5992,10 +5992,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="15">
-        <v>6864</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8311</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="14" t="s">
@@ -6017,7 +6017,7 @@
         <v>1444</v>
       </c>
       <c r="J12" s="15">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="K12" s="15">
         <v>0</v>
@@ -6038,10 +6038,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="15">
-        <v>6330</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7630</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="14" t="s">
@@ -6063,7 +6063,7 @@
         <v>117</v>
       </c>
       <c r="J13" s="15">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="K13" s="15">
         <v>0</v>
@@ -6084,10 +6084,10 @@
         <v>0</v>
       </c>
       <c r="Q13" s="15">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="72"/>
       <c r="C14" s="73"/>
       <c r="D14" s="14" t="s">
@@ -6109,7 +6109,7 @@
         <v>6338</v>
       </c>
       <c r="J14" s="15">
-        <v>0</v>
+        <v>4884</v>
       </c>
       <c r="K14" s="15">
         <v>0</v>
@@ -6130,10 +6130,10 @@
         <v>0</v>
       </c>
       <c r="Q14" s="15">
-        <v>24469</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29353</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="72"/>
       <c r="C15" s="73"/>
       <c r="D15" s="14" t="s">
@@ -6155,7 +6155,7 @@
         <v>6152</v>
       </c>
       <c r="J15" s="15">
-        <v>0</v>
+        <v>4742</v>
       </c>
       <c r="K15" s="15">
         <v>0</v>
@@ -6176,10 +6176,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="15">
-        <v>23515</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28257</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="72"/>
       <c r="C16" s="73"/>
       <c r="D16" s="14" t="s">
@@ -6201,7 +6201,7 @@
         <v>186</v>
       </c>
       <c r="J16" s="15">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="K16" s="15">
         <v>0</v>
@@ -6222,10 +6222,10 @@
         <v>0</v>
       </c>
       <c r="Q16" s="15">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="72"/>
       <c r="C17" s="73"/>
       <c r="D17" s="14" t="s">
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="15">
         <v>0</v>
@@ -6268,10 +6268,10 @@
         <v>0</v>
       </c>
       <c r="Q17" s="15">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="72"/>
       <c r="C18" s="73"/>
       <c r="D18" s="14" t="s">
@@ -6290,10 +6290,10 @@
         <v>33860</v>
       </c>
       <c r="I18" s="15">
-        <v>36911</v>
+        <v>36912</v>
       </c>
       <c r="J18" s="15">
-        <v>0</v>
+        <v>33431</v>
       </c>
       <c r="K18" s="15">
         <v>0</v>
@@ -6314,10 +6314,10 @@
         <v>0</v>
       </c>
       <c r="Q18" s="15">
-        <v>159906</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>193338</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="72"/>
       <c r="C19" s="73"/>
       <c r="D19" s="14" t="s">
@@ -6330,40 +6330,40 @@
         <v>1</v>
       </c>
       <c r="G19" s="15">
+        <v>2</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15">
         <v>3</v>
       </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15">
-        <v>0</v>
-      </c>
-      <c r="K19" s="15">
-        <v>0</v>
-      </c>
-      <c r="L19" s="15">
-        <v>0</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0</v>
-      </c>
-      <c r="N19" s="15">
-        <v>0</v>
-      </c>
-      <c r="O19" s="15">
-        <v>0</v>
-      </c>
-      <c r="P19" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="72"/>
       <c r="C20" s="73"/>
       <c r="D20" s="14" t="s">
@@ -6376,7 +6376,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" s="15">
         <v>16</v>
@@ -6385,7 +6385,7 @@
         <v>8</v>
       </c>
       <c r="J20" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K20" s="15">
         <v>0</v>
@@ -6406,10 +6406,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="15">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="72"/>
       <c r="C21" s="73"/>
       <c r="D21" s="14" t="s">
@@ -6431,7 +6431,7 @@
         <v>26367</v>
       </c>
       <c r="J21" s="15">
-        <v>0</v>
+        <v>24258</v>
       </c>
       <c r="K21" s="15">
         <v>0</v>
@@ -6452,10 +6452,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="15">
-        <v>113446</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>137704</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="72"/>
       <c r="C22" s="73"/>
       <c r="D22" s="14" t="s">
@@ -6474,10 +6474,10 @@
         <v>9290</v>
       </c>
       <c r="I22" s="15">
-        <v>10536</v>
+        <v>10537</v>
       </c>
       <c r="J22" s="15">
-        <v>0</v>
+        <v>9157</v>
       </c>
       <c r="K22" s="15">
         <v>0</v>
@@ -6498,10 +6498,10 @@
         <v>0</v>
       </c>
       <c r="Q22" s="15">
-        <v>46397</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55555</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="72"/>
       <c r="C23" s="73"/>
       <c r="D23" s="14" t="s">
@@ -6520,10 +6520,10 @@
         <v>496</v>
       </c>
       <c r="I23" s="15">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J23" s="15">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="K23" s="15">
         <v>0</v>
@@ -6544,10 +6544,10 @@
         <v>0</v>
       </c>
       <c r="Q23" s="15">
-        <v>3214</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
       <c r="D24" s="14" t="s">
@@ -6569,7 +6569,7 @@
         <v>16898</v>
       </c>
       <c r="J24" s="15">
-        <v>0</v>
+        <v>17564</v>
       </c>
       <c r="K24" s="15">
         <v>0</v>
@@ -6590,10 +6590,10 @@
         <v>0</v>
       </c>
       <c r="Q24" s="15">
-        <v>78052</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95616</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="74"/>
       <c r="C25" s="75"/>
       <c r="D25" s="14" t="s">
@@ -6615,7 +6615,7 @@
         <v>9260</v>
       </c>
       <c r="J25" s="15">
-        <v>0</v>
+        <v>9187</v>
       </c>
       <c r="K25" s="15">
         <v>0</v>
@@ -6636,10 +6636,10 @@
         <v>0</v>
       </c>
       <c r="Q25" s="15">
-        <v>41503</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50690</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="74"/>
       <c r="C26" s="75"/>
       <c r="D26" s="14" t="s">
@@ -6661,7 +6661,7 @@
         <v>1180</v>
       </c>
       <c r="J26" s="15">
-        <v>0</v>
+        <v>1293</v>
       </c>
       <c r="K26" s="15">
         <v>0</v>
@@ -6682,10 +6682,10 @@
         <v>0</v>
       </c>
       <c r="Q26" s="15">
-        <v>5118</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6411</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="74"/>
       <c r="C27" s="75"/>
       <c r="D27" s="14" t="s">
@@ -6707,7 +6707,7 @@
         <v>1041</v>
       </c>
       <c r="J27" s="15">
-        <v>0</v>
+        <v>1179</v>
       </c>
       <c r="K27" s="15">
         <v>0</v>
@@ -6728,10 +6728,10 @@
         <v>0</v>
       </c>
       <c r="Q27" s="15">
-        <v>4391</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5570</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="74"/>
       <c r="C28" s="75"/>
       <c r="D28" s="14" t="s">
@@ -6753,7 +6753,7 @@
         <v>139</v>
       </c>
       <c r="J28" s="15">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="K28" s="15">
         <v>0</v>
@@ -6774,10 +6774,10 @@
         <v>0</v>
       </c>
       <c r="Q28" s="15">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="74"/>
       <c r="C29" s="75"/>
       <c r="D29" s="14" t="s">
@@ -6799,7 +6799,7 @@
         <v>18464</v>
       </c>
       <c r="J29" s="15">
-        <v>0</v>
+        <v>15709</v>
       </c>
       <c r="K29" s="15">
         <v>0</v>
@@ -6820,10 +6820,10 @@
         <v>0</v>
       </c>
       <c r="Q29" s="15">
-        <v>67645</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83354</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="74"/>
       <c r="C30" s="75"/>
       <c r="D30" s="14" t="s">
@@ -6845,7 +6845,7 @@
         <v>237</v>
       </c>
       <c r="J30" s="15">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="K30" s="15">
         <v>0</v>
@@ -6866,10 +6866,10 @@
         <v>0</v>
       </c>
       <c r="Q30" s="15">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="74"/>
       <c r="C31" s="75"/>
       <c r="D31" s="14" t="s">
@@ -6891,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="15">
         <v>0</v>
@@ -6912,10 +6912,10 @@
         <v>0</v>
       </c>
       <c r="Q31" s="15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="74"/>
       <c r="C32" s="75"/>
       <c r="D32" s="14" t="s">
@@ -6937,7 +6937,7 @@
         <v>236</v>
       </c>
       <c r="J32" s="15">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="K32" s="15">
         <v>0</v>
@@ -6958,10 +6958,10 @@
         <v>0</v>
       </c>
       <c r="Q32" s="15">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="74"/>
       <c r="C33" s="75"/>
       <c r="D33" s="14" t="s">
@@ -6983,7 +6983,7 @@
         <v>828</v>
       </c>
       <c r="J33" s="15">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="K33" s="15">
         <v>0</v>
@@ -7004,10 +7004,10 @@
         <v>0</v>
       </c>
       <c r="Q33" s="15">
-        <v>3381</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="74"/>
       <c r="C34" s="75"/>
       <c r="D34" s="14" t="s">
@@ -7029,7 +7029,7 @@
         <v>4710</v>
       </c>
       <c r="J34" s="15">
-        <v>0</v>
+        <v>4869</v>
       </c>
       <c r="K34" s="15">
         <v>0</v>
@@ -7050,10 +7050,10 @@
         <v>0</v>
       </c>
       <c r="Q34" s="15">
-        <v>26222</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31091</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="74"/>
       <c r="C35" s="75"/>
       <c r="D35" s="14" t="s">
@@ -7075,7 +7075,7 @@
         <v>5103</v>
       </c>
       <c r="J35" s="15">
-        <v>0</v>
+        <v>5015</v>
       </c>
       <c r="K35" s="15">
         <v>0</v>
@@ -7096,10 +7096,10 @@
         <v>0</v>
       </c>
       <c r="Q35" s="15">
-        <v>25037</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30052</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="74"/>
       <c r="C36" s="75"/>
       <c r="D36" s="14" t="s">
@@ -7121,7 +7121,7 @@
         <v>1987</v>
       </c>
       <c r="J36" s="15">
-        <v>0</v>
+        <v>1666</v>
       </c>
       <c r="K36" s="15">
         <v>0</v>
@@ -7142,10 +7142,10 @@
         <v>0</v>
       </c>
       <c r="Q36" s="15">
-        <v>9166</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10832</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="74"/>
       <c r="C37" s="75"/>
       <c r="D37" s="14" t="s">
@@ -7167,7 +7167,7 @@
         <v>3116</v>
       </c>
       <c r="J37" s="15">
-        <v>0</v>
+        <v>3349</v>
       </c>
       <c r="K37" s="15">
         <v>0</v>
@@ -7188,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="Q37" s="15">
-        <v>15871</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19220</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="74"/>
       <c r="C38" s="75"/>
       <c r="D38" s="14" t="s">
@@ -7213,7 +7213,7 @@
         <v>8086</v>
       </c>
       <c r="J38" s="15">
-        <v>0</v>
+        <v>7955</v>
       </c>
       <c r="K38" s="15">
         <v>0</v>
@@ -7234,10 +7234,10 @@
         <v>0</v>
       </c>
       <c r="Q38" s="15">
-        <v>37225</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="74"/>
       <c r="C39" s="75"/>
       <c r="D39" s="14" t="s">
@@ -7259,7 +7259,7 @@
         <v>11293</v>
       </c>
       <c r="J39" s="15">
-        <v>0</v>
+        <v>10428</v>
       </c>
       <c r="K39" s="15">
         <v>0</v>
@@ -7280,10 +7280,10 @@
         <v>0</v>
       </c>
       <c r="Q39" s="15">
-        <v>55997</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66425</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="74"/>
       <c r="C40" s="75"/>
       <c r="D40" s="14" t="s">
@@ -7305,7 +7305,7 @@
         <v>11195</v>
       </c>
       <c r="J40" s="15">
-        <v>0</v>
+        <v>10331</v>
       </c>
       <c r="K40" s="15">
         <v>0</v>
@@ -7326,10 +7326,10 @@
         <v>0</v>
       </c>
       <c r="Q40" s="15">
-        <v>55537</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65868</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="74"/>
       <c r="C41" s="75"/>
       <c r="D41" s="14" t="s">
@@ -7351,7 +7351,7 @@
         <v>98</v>
       </c>
       <c r="J41" s="15">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="K41" s="15">
         <v>0</v>
@@ -7372,10 +7372,10 @@
         <v>0</v>
       </c>
       <c r="Q41" s="15">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="74"/>
       <c r="C42" s="75"/>
       <c r="D42" s="14" t="s">
@@ -7397,7 +7397,7 @@
         <v>31632</v>
       </c>
       <c r="J42" s="15">
-        <v>0</v>
+        <v>32191</v>
       </c>
       <c r="K42" s="15">
         <v>0</v>
@@ -7418,10 +7418,10 @@
         <v>0</v>
       </c>
       <c r="Q42" s="15">
-        <v>122027</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>154218</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="76"/>
       <c r="C43" s="77" t="s">
         <v>52</v>
@@ -7440,10 +7440,10 @@
         <v>12354</v>
       </c>
       <c r="I43" s="43">
-        <v>14449</v>
+        <v>14460</v>
       </c>
       <c r="J43" s="43">
-        <v>0</v>
+        <v>13211</v>
       </c>
       <c r="K43" s="43">
         <v>0</v>
@@ -7464,10 +7464,10 @@
         <v>0</v>
       </c>
       <c r="Q43" s="43">
-        <v>59367</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72589</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="69" t="s">
         <v>31</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>47059</v>
       </c>
       <c r="J44" s="93">
-        <v>0</v>
+        <v>43339</v>
       </c>
       <c r="K44" s="93">
         <v>0</v>
@@ -7510,10 +7510,10 @@
         <v>0</v>
       </c>
       <c r="Q44" s="93">
-        <v>210726</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>254065</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="16"/>
       <c r="C45" s="71" t="s">
         <v>51</v>
@@ -7535,7 +7535,7 @@
         <v>46403</v>
       </c>
       <c r="J45" s="21">
-        <v>0</v>
+        <v>42646</v>
       </c>
       <c r="K45" s="21">
         <v>0</v>
@@ -7556,10 +7556,10 @@
         <v>0</v>
       </c>
       <c r="Q45" s="21">
-        <v>207565</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>250211</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="74"/>
       <c r="C46" s="75"/>
       <c r="D46" s="14" t="s">
@@ -7581,7 +7581,7 @@
         <v>376</v>
       </c>
       <c r="J46" s="15">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="K46" s="15">
         <v>0</v>
@@ -7602,10 +7602,10 @@
         <v>0</v>
       </c>
       <c r="Q46" s="15">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="74"/>
       <c r="C47" s="75"/>
       <c r="D47" s="14" t="s">
@@ -7627,7 +7627,7 @@
         <v>21960</v>
       </c>
       <c r="J47" s="15">
-        <v>0</v>
+        <v>19649</v>
       </c>
       <c r="K47" s="15">
         <v>0</v>
@@ -7648,10 +7648,10 @@
         <v>0</v>
       </c>
       <c r="Q47" s="15">
-        <v>96167</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>115816</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="74"/>
       <c r="C48" s="75"/>
       <c r="D48" s="14" t="s">
@@ -7673,7 +7673,7 @@
         <v>2275</v>
       </c>
       <c r="J48" s="15">
-        <v>0</v>
+        <v>2093</v>
       </c>
       <c r="K48" s="15">
         <v>0</v>
@@ -7694,10 +7694,10 @@
         <v>0</v>
       </c>
       <c r="Q48" s="15">
-        <v>10193</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12286</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="74"/>
       <c r="C49" s="75"/>
       <c r="D49" s="14" t="s">
@@ -7719,7 +7719,7 @@
         <v>19685</v>
       </c>
       <c r="J49" s="15">
-        <v>0</v>
+        <v>17555</v>
       </c>
       <c r="K49" s="15">
         <v>0</v>
@@ -7740,10 +7740,10 @@
         <v>0</v>
       </c>
       <c r="Q49" s="15">
-        <v>85960</v>
-      </c>
-    </row>
-    <row r="50" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103515</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="74"/>
       <c r="C50" s="75"/>
       <c r="D50" s="14" t="s">
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="15">
         <v>0</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="Q50" s="15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="74"/>
       <c r="C51" s="75"/>
       <c r="D51" s="14" t="s">
@@ -7811,7 +7811,7 @@
         <v>3251</v>
       </c>
       <c r="J51" s="15">
-        <v>0</v>
+        <v>3439</v>
       </c>
       <c r="K51" s="15">
         <v>0</v>
@@ -7832,10 +7832,10 @@
         <v>0</v>
       </c>
       <c r="Q51" s="15">
-        <v>15287</v>
-      </c>
-    </row>
-    <row r="52" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18726</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="74"/>
       <c r="C52" s="75"/>
       <c r="D52" s="14" t="s">
@@ -7857,7 +7857,7 @@
         <v>4712</v>
       </c>
       <c r="J52" s="15">
-        <v>0</v>
+        <v>4370</v>
       </c>
       <c r="K52" s="15">
         <v>0</v>
@@ -7878,10 +7878,10 @@
         <v>0</v>
       </c>
       <c r="Q52" s="15">
-        <v>19921</v>
-      </c>
-    </row>
-    <row r="53" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24291</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="74"/>
       <c r="C53" s="75"/>
       <c r="D53" s="14" t="s">
@@ -7903,7 +7903,7 @@
         <v>1464</v>
       </c>
       <c r="J53" s="15">
-        <v>0</v>
+        <v>1326</v>
       </c>
       <c r="K53" s="15">
         <v>0</v>
@@ -7924,10 +7924,10 @@
         <v>0</v>
       </c>
       <c r="Q53" s="15">
-        <v>6474</v>
-      </c>
-    </row>
-    <row r="54" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="74"/>
       <c r="C54" s="75"/>
       <c r="D54" s="14" t="s">
@@ -7949,7 +7949,7 @@
         <v>576</v>
       </c>
       <c r="J54" s="15">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="K54" s="15">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>0</v>
       </c>
       <c r="Q54" s="15">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="55" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="74"/>
       <c r="C55" s="75"/>
       <c r="D55" s="14" t="s">
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="15">
         <v>0</v>
@@ -8016,10 +8016,10 @@
         <v>0</v>
       </c>
       <c r="Q55" s="15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="74"/>
       <c r="C56" s="75"/>
       <c r="D56" s="14" t="s">
@@ -8041,7 +8041,7 @@
         <v>211</v>
       </c>
       <c r="J56" s="15">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="K56" s="15">
         <v>0</v>
@@ -8062,10 +8062,10 @@
         <v>0</v>
       </c>
       <c r="Q56" s="15">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="74"/>
       <c r="C57" s="75"/>
       <c r="D57" s="14" t="s">
@@ -8087,7 +8087,7 @@
         <v>565</v>
       </c>
       <c r="J57" s="15">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="K57" s="15">
         <v>0</v>
@@ -8108,10 +8108,10 @@
         <v>0</v>
       </c>
       <c r="Q57" s="15">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="58" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="74"/>
       <c r="C58" s="75"/>
       <c r="D58" s="14" t="s">
@@ -8133,7 +8133,7 @@
         <v>362</v>
       </c>
       <c r="J58" s="15">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="K58" s="15">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="Q58" s="15">
-        <v>3599</v>
-      </c>
-    </row>
-    <row r="59" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="74"/>
       <c r="C59" s="75"/>
       <c r="D59" s="14" t="s">
@@ -8179,7 +8179,7 @@
         <v>136</v>
       </c>
       <c r="J59" s="15">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="K59" s="15">
         <v>0</v>
@@ -8200,10 +8200,10 @@
         <v>0</v>
       </c>
       <c r="Q59" s="15">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="60" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="74"/>
       <c r="C60" s="75"/>
       <c r="D60" s="14" t="s">
@@ -8225,7 +8225,7 @@
         <v>94</v>
       </c>
       <c r="J60" s="15">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="K60" s="15">
         <v>0</v>
@@ -8246,10 +8246,10 @@
         <v>0</v>
       </c>
       <c r="Q60" s="15">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="61" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="74"/>
       <c r="C61" s="75"/>
       <c r="D61" s="14" t="s">
@@ -8271,7 +8271,7 @@
         <v>42</v>
       </c>
       <c r="J61" s="15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K61" s="15">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>0</v>
       </c>
       <c r="Q61" s="15">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="62" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="74"/>
       <c r="C62" s="75"/>
       <c r="D62" s="14" t="s">
@@ -8317,7 +8317,7 @@
         <v>2792</v>
       </c>
       <c r="J62" s="15">
-        <v>0</v>
+        <v>2440</v>
       </c>
       <c r="K62" s="15">
         <v>0</v>
@@ -8338,10 +8338,10 @@
         <v>0</v>
       </c>
       <c r="Q62" s="15">
-        <v>13070</v>
-      </c>
-    </row>
-    <row r="63" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15510</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="72"/>
       <c r="C63" s="73"/>
       <c r="D63" s="14" t="s">
@@ -8363,7 +8363,7 @@
         <v>4426</v>
       </c>
       <c r="J63" s="15">
-        <v>0</v>
+        <v>4577</v>
       </c>
       <c r="K63" s="15">
         <v>0</v>
@@ -8384,10 +8384,10 @@
         <v>0</v>
       </c>
       <c r="Q63" s="15">
-        <v>18580</v>
-      </c>
-    </row>
-    <row r="64" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23157</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="72"/>
       <c r="C64" s="73"/>
       <c r="D64" s="14" t="s">
@@ -8409,7 +8409,7 @@
         <v>5571</v>
       </c>
       <c r="J64" s="15">
-        <v>0</v>
+        <v>4860</v>
       </c>
       <c r="K64" s="15">
         <v>0</v>
@@ -8430,10 +8430,10 @@
         <v>0</v>
       </c>
       <c r="Q64" s="15">
-        <v>26310</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31170</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="76"/>
       <c r="C65" s="77" t="s">
         <v>52</v>
@@ -8455,7 +8455,7 @@
         <v>656</v>
       </c>
       <c r="J65" s="43">
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="K65" s="43">
         <v>0</v>
@@ -8476,10 +8476,10 @@
         <v>0</v>
       </c>
       <c r="Q65" s="33">
-        <v>3161</v>
-      </c>
-    </row>
-    <row r="66" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="78" t="s">
         <v>32</v>
       </c>
@@ -8498,10 +8498,10 @@
         <v>9345</v>
       </c>
       <c r="I66" s="97">
-        <v>9161</v>
+        <v>9149</v>
       </c>
       <c r="J66" s="97">
-        <v>0</v>
+        <v>8511</v>
       </c>
       <c r="K66" s="97">
         <v>0</v>
@@ -8522,10 +8522,10 @@
         <v>0</v>
       </c>
       <c r="Q66" s="97">
-        <v>46255</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54754</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="80"/>
       <c r="C67" s="81" t="s">
         <v>33</v>
@@ -8547,7 +8547,7 @@
         <v>524</v>
       </c>
       <c r="J67" s="94">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="K67" s="94">
         <v>0</v>
@@ -8568,10 +8568,10 @@
         <v>0</v>
       </c>
       <c r="Q67" s="94">
-        <v>2612</v>
-      </c>
-    </row>
-    <row r="68" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="16"/>
       <c r="C68" s="71" t="s">
         <v>51</v>
@@ -8593,7 +8593,7 @@
         <v>512</v>
       </c>
       <c r="J68" s="21">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="K68" s="21">
         <v>0</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="Q68" s="21">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="69" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="16"/>
       <c r="C69" s="71"/>
       <c r="D69" s="14" t="s">
@@ -8663,7 +8663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="16"/>
       <c r="C70" s="71"/>
       <c r="D70" s="14" t="s">
@@ -8685,7 +8685,7 @@
         <v>318</v>
       </c>
       <c r="J70" s="21">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="K70" s="21">
         <v>0</v>
@@ -8706,10 +8706,10 @@
         <v>0</v>
       </c>
       <c r="Q70" s="15">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="71" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="72"/>
       <c r="C71" s="73"/>
       <c r="D71" s="14" t="s">
@@ -8731,7 +8731,7 @@
         <v>6</v>
       </c>
       <c r="J71" s="21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K71" s="21">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="Q71" s="15">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="74"/>
       <c r="C72" s="75"/>
       <c r="D72" s="14" t="s">
@@ -8777,7 +8777,7 @@
         <v>37</v>
       </c>
       <c r="J72" s="21">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K72" s="21">
         <v>0</v>
@@ -8798,10 +8798,10 @@
         <v>0</v>
       </c>
       <c r="Q72" s="15">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="74"/>
       <c r="C73" s="75"/>
       <c r="D73" s="14" t="s">
@@ -8823,7 +8823,7 @@
         <v>7</v>
       </c>
       <c r="J73" s="15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K73" s="15">
         <v>0</v>
@@ -8844,10 +8844,10 @@
         <v>0</v>
       </c>
       <c r="Q73" s="15">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="74"/>
       <c r="C74" s="75"/>
       <c r="D74" s="14" t="s">
@@ -8869,7 +8869,7 @@
         <v>125</v>
       </c>
       <c r="J74" s="15">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="K74" s="15">
         <v>0</v>
@@ -8890,10 +8890,10 @@
         <v>0</v>
       </c>
       <c r="Q74" s="15">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="75" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="107"/>
       <c r="C75" s="108"/>
       <c r="D75" s="14" t="s">
@@ -8915,7 +8915,7 @@
         <v>19</v>
       </c>
       <c r="J75" s="15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K75" s="15">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="Q75" s="15">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="107"/>
       <c r="C76" s="108"/>
       <c r="D76" s="14" t="s">
@@ -8961,7 +8961,7 @@
         <v>8</v>
       </c>
       <c r="J76" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K76" s="15">
         <v>0</v>
@@ -8982,10 +8982,10 @@
         <v>0</v>
       </c>
       <c r="Q76" s="15">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="107"/>
       <c r="C77" s="108"/>
       <c r="D77" s="14" t="s">
@@ -9007,7 +9007,7 @@
         <v>11</v>
       </c>
       <c r="J77" s="15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K77" s="15">
         <v>0</v>
@@ -9028,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="Q77" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="82"/>
       <c r="C78" s="77" t="s">
         <v>52</v>
@@ -9053,7 +9053,7 @@
         <v>12</v>
       </c>
       <c r="J78" s="43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K78" s="43">
         <v>0</v>
@@ -9074,10 +9074,10 @@
         <v>0</v>
       </c>
       <c r="Q78" s="43">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="83"/>
       <c r="C79" s="81" t="s">
         <v>34</v>
@@ -9096,10 +9096,10 @@
         <v>768</v>
       </c>
       <c r="I79" s="94">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J79" s="94">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="K79" s="94">
         <v>0</v>
@@ -9120,10 +9120,10 @@
         <v>0</v>
       </c>
       <c r="Q79" s="94">
-        <v>4067</v>
-      </c>
-    </row>
-    <row r="80" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="72"/>
       <c r="C80" s="71" t="s">
         <v>51</v>
@@ -9145,7 +9145,7 @@
         <v>750</v>
       </c>
       <c r="J80" s="21">
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="K80" s="21">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="Q80" s="21">
-        <v>3890</v>
-      </c>
-    </row>
-    <row r="81" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="74"/>
       <c r="C81" s="75"/>
       <c r="D81" s="14" t="s">
@@ -9191,7 +9191,7 @@
         <v>7</v>
       </c>
       <c r="J81" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K81" s="15">
         <v>0</v>
@@ -9212,10 +9212,10 @@
         <v>0</v>
       </c>
       <c r="Q81" s="15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="74"/>
       <c r="C82" s="75"/>
       <c r="D82" s="14" t="s">
@@ -9237,7 +9237,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="15">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="Q82" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="74"/>
       <c r="C83" s="75"/>
       <c r="D83" s="14" t="s">
@@ -9283,7 +9283,7 @@
         <v>2</v>
       </c>
       <c r="J83" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K83" s="15">
         <v>0</v>
@@ -9304,10 +9304,10 @@
         <v>0</v>
       </c>
       <c r="Q83" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="74"/>
       <c r="C84" s="75"/>
       <c r="D84" s="14" t="s">
@@ -9329,7 +9329,7 @@
         <v>63</v>
       </c>
       <c r="J84" s="15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K84" s="15">
         <v>0</v>
@@ -9350,10 +9350,10 @@
         <v>0</v>
       </c>
       <c r="Q84" s="15">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="85" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="74"/>
       <c r="C85" s="75"/>
       <c r="D85" s="14" t="s">
@@ -9375,7 +9375,7 @@
         <v>221</v>
       </c>
       <c r="J85" s="15">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="K85" s="15">
         <v>0</v>
@@ -9396,10 +9396,10 @@
         <v>0</v>
       </c>
       <c r="Q85" s="15">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="86" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="72"/>
       <c r="C86" s="73"/>
       <c r="D86" s="14" t="s">
@@ -9421,7 +9421,7 @@
         <v>456</v>
       </c>
       <c r="J86" s="15">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="K86" s="15">
         <v>0</v>
@@ -9442,10 +9442,10 @@
         <v>0</v>
       </c>
       <c r="Q86" s="15">
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="87" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="84"/>
       <c r="C87" s="77" t="s">
         <v>52</v>
@@ -9464,10 +9464,10 @@
         <v>27</v>
       </c>
       <c r="I87" s="43">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J87" s="43">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K87" s="43">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="Q87" s="43">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="85"/>
       <c r="C88" s="81" t="s">
         <v>35</v>
@@ -9513,7 +9513,7 @@
         <v>1010</v>
       </c>
       <c r="J88" s="94">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="K88" s="94">
         <v>0</v>
@@ -9534,10 +9534,10 @@
         <v>0</v>
       </c>
       <c r="Q88" s="94">
-        <v>4201</v>
-      </c>
-    </row>
-    <row r="89" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5305</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="74"/>
       <c r="C89" s="71" t="s">
         <v>53</v>
@@ -9559,7 +9559,7 @@
         <v>974</v>
       </c>
       <c r="J89" s="21">
-        <v>0</v>
+        <v>1073</v>
       </c>
       <c r="K89" s="21">
         <v>0</v>
@@ -9580,10 +9580,10 @@
         <v>0</v>
       </c>
       <c r="Q89" s="21">
-        <v>4047</v>
-      </c>
-    </row>
-    <row r="90" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="74"/>
       <c r="C90" s="75"/>
       <c r="D90" s="14" t="s">
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="74"/>
       <c r="C91" s="75"/>
       <c r="D91" s="14" t="s">
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="74"/>
       <c r="C92" s="75"/>
       <c r="D92" s="14" t="s">
@@ -9697,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="15">
         <v>0</v>
@@ -9718,10 +9718,10 @@
         <v>0</v>
       </c>
       <c r="Q92" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="74"/>
       <c r="C93" s="75"/>
       <c r="D93" s="14" t="s">
@@ -9743,7 +9743,7 @@
         <v>57</v>
       </c>
       <c r="J93" s="15">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K93" s="15">
         <v>0</v>
@@ -9764,10 +9764,10 @@
         <v>0</v>
       </c>
       <c r="Q93" s="15">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="94" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="74"/>
       <c r="C94" s="75"/>
       <c r="D94" s="14" t="s">
@@ -9789,7 +9789,7 @@
         <v>688</v>
       </c>
       <c r="J94" s="15">
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="K94" s="15">
         <v>0</v>
@@ -9810,10 +9810,10 @@
         <v>0</v>
       </c>
       <c r="Q94" s="15">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="95" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="74"/>
       <c r="C95" s="75"/>
       <c r="D95" s="14" t="s">
@@ -9835,7 +9835,7 @@
         <v>228</v>
       </c>
       <c r="J95" s="15">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="K95" s="15">
         <v>0</v>
@@ -9856,10 +9856,10 @@
         <v>0</v>
       </c>
       <c r="Q95" s="15">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="96" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="84"/>
       <c r="C96" s="77" t="s">
         <v>52</v>
@@ -9881,7 +9881,7 @@
         <v>36</v>
       </c>
       <c r="J96" s="15">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K96" s="15">
         <v>0</v>
@@ -9902,10 +9902,10 @@
         <v>0</v>
       </c>
       <c r="Q96" s="43">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="97" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="85"/>
       <c r="C97" s="81" t="s">
         <v>36</v>
@@ -9927,7 +9927,7 @@
         <v>3029</v>
       </c>
       <c r="J97" s="94">
-        <v>0</v>
+        <v>2773</v>
       </c>
       <c r="K97" s="94">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="Q97" s="94">
-        <v>14211</v>
-      </c>
-    </row>
-    <row r="98" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16984</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="72"/>
       <c r="C98" s="71" t="s">
         <v>51</v>
@@ -9973,7 +9973,7 @@
         <v>3021</v>
       </c>
       <c r="J98" s="21">
-        <v>0</v>
+        <v>2754</v>
       </c>
       <c r="K98" s="21">
         <v>0</v>
@@ -9994,10 +9994,10 @@
         <v>0</v>
       </c>
       <c r="Q98" s="21">
-        <v>14198</v>
-      </c>
-    </row>
-    <row r="99" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16952</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="72"/>
       <c r="C99" s="73"/>
       <c r="D99" s="14" t="s">
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="15">
         <v>0</v>
@@ -10040,10 +10040,10 @@
         <v>0</v>
       </c>
       <c r="Q99" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="72"/>
       <c r="C100" s="73"/>
       <c r="D100" s="14" t="s">
@@ -10065,7 +10065,7 @@
         <v>124</v>
       </c>
       <c r="J100" s="15">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="K100" s="15">
         <v>0</v>
@@ -10086,10 +10086,10 @@
         <v>0</v>
       </c>
       <c r="Q100" s="15">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="101" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="74"/>
       <c r="C101" s="75"/>
       <c r="D101" s="14" t="s">
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" s="15">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q101" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="74"/>
       <c r="C102" s="75"/>
       <c r="D102" s="14" t="s">
@@ -10157,7 +10157,7 @@
         <v>281</v>
       </c>
       <c r="J102" s="15">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="K102" s="15">
         <v>0</v>
@@ -10178,10 +10178,10 @@
         <v>0</v>
       </c>
       <c r="Q102" s="15">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="103" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="74"/>
       <c r="C103" s="75"/>
       <c r="D103" s="14" t="s">
@@ -10203,7 +10203,7 @@
         <v>1269</v>
       </c>
       <c r="J103" s="15">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="K103" s="15">
         <v>0</v>
@@ -10224,10 +10224,10 @@
         <v>0</v>
       </c>
       <c r="Q103" s="15">
-        <v>5711</v>
-      </c>
-    </row>
-    <row r="104" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6936</v>
+      </c>
+    </row>
+    <row r="104" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="74"/>
       <c r="C104" s="75"/>
       <c r="D104" s="14" t="s">
@@ -10249,7 +10249,7 @@
         <v>757</v>
       </c>
       <c r="J104" s="15">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="K104" s="15">
         <v>0</v>
@@ -10270,10 +10270,10 @@
         <v>0</v>
       </c>
       <c r="Q104" s="15">
-        <v>3787</v>
-      </c>
-    </row>
-    <row r="105" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="74"/>
       <c r="C105" s="75"/>
       <c r="D105" s="14" t="s">
@@ -10295,7 +10295,7 @@
         <v>169</v>
       </c>
       <c r="J105" s="15">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="K105" s="15">
         <v>0</v>
@@ -10316,10 +10316,10 @@
         <v>0</v>
       </c>
       <c r="Q105" s="15">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="106" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="74"/>
       <c r="C106" s="75"/>
       <c r="D106" s="14" t="s">
@@ -10341,7 +10341,7 @@
         <v>421</v>
       </c>
       <c r="J106" s="15">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="K106" s="15">
         <v>0</v>
@@ -10362,10 +10362,10 @@
         <v>0</v>
       </c>
       <c r="Q106" s="15">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="107" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="107" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="84"/>
       <c r="C107" s="77" t="s">
         <v>52</v>
@@ -10387,7 +10387,7 @@
         <v>8</v>
       </c>
       <c r="J107" s="43">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K107" s="43">
         <v>0</v>
@@ -10408,10 +10408,10 @@
         <v>0</v>
       </c>
       <c r="Q107" s="43">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="85"/>
       <c r="C108" s="81" t="s">
         <v>37</v>
@@ -10430,10 +10430,10 @@
         <v>4211</v>
       </c>
       <c r="I108" s="94">
-        <v>3822</v>
+        <v>3811</v>
       </c>
       <c r="J108" s="94">
-        <v>0</v>
+        <v>3555</v>
       </c>
       <c r="K108" s="94">
         <v>0</v>
@@ -10454,10 +10454,10 @@
         <v>0</v>
       </c>
       <c r="Q108" s="94">
-        <v>21164</v>
-      </c>
-    </row>
-    <row r="109" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24708</v>
+      </c>
+    </row>
+    <row r="109" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="72"/>
       <c r="C109" s="71" t="s">
         <v>51</v>
@@ -10476,10 +10476,10 @@
         <v>4207</v>
       </c>
       <c r="I109" s="21">
-        <v>3810</v>
+        <v>3811</v>
       </c>
       <c r="J109" s="21">
-        <v>0</v>
+        <v>3552</v>
       </c>
       <c r="K109" s="21">
         <v>0</v>
@@ -10500,10 +10500,10 @@
         <v>0</v>
       </c>
       <c r="Q109" s="21">
-        <v>21145</v>
-      </c>
-    </row>
-    <row r="110" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24698</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="72"/>
       <c r="C110" s="73"/>
       <c r="D110" s="14" t="s">
@@ -10525,7 +10525,7 @@
         <v>476</v>
       </c>
       <c r="J110" s="15">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="K110" s="15">
         <v>0</v>
@@ -10546,10 +10546,10 @@
         <v>0</v>
       </c>
       <c r="Q110" s="15">
-        <v>2699</v>
-      </c>
-    </row>
-    <row r="111" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="111" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="74"/>
       <c r="C111" s="75"/>
       <c r="D111" s="14" t="s">
@@ -10571,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="15">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>0</v>
       </c>
       <c r="Q111" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="74"/>
       <c r="C112" s="75"/>
       <c r="D112" s="14" t="s">
@@ -10617,7 +10617,7 @@
         <v>228</v>
       </c>
       <c r="J112" s="15">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="K112" s="15">
         <v>0</v>
@@ -10638,10 +10638,10 @@
         <v>0</v>
       </c>
       <c r="Q112" s="15">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="113" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="74"/>
       <c r="C113" s="75"/>
       <c r="D113" s="14" t="s">
@@ -10663,7 +10663,7 @@
         <v>365</v>
       </c>
       <c r="J113" s="15">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="K113" s="15">
         <v>0</v>
@@ -10684,10 +10684,10 @@
         <v>0</v>
       </c>
       <c r="Q113" s="15">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="114" spans="2:17" s="1" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17" s="1" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="74"/>
       <c r="C114" s="75"/>
       <c r="D114" s="14" t="s">
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:17" s="1" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:17" s="1" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="74"/>
       <c r="C115" s="75"/>
       <c r="D115" s="14" t="s">
@@ -10755,7 +10755,7 @@
         <v>365</v>
       </c>
       <c r="J115" s="15">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="K115" s="15">
         <v>0</v>
@@ -10776,10 +10776,10 @@
         <v>0</v>
       </c>
       <c r="Q115" s="15">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="116" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="116" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="74"/>
       <c r="C116" s="75"/>
       <c r="D116" s="14" t="s">
@@ -10801,7 +10801,7 @@
         <v>873</v>
       </c>
       <c r="J116" s="15">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="K116" s="15">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="Q116" s="15">
-        <v>3854</v>
-      </c>
-    </row>
-    <row r="117" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="74"/>
       <c r="C117" s="75"/>
       <c r="D117" s="14" t="s">
@@ -10844,10 +10844,10 @@
         <v>827</v>
       </c>
       <c r="I117" s="15">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="J117" s="15">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="K117" s="15">
         <v>0</v>
@@ -10868,10 +10868,10 @@
         <v>0</v>
       </c>
       <c r="Q117" s="15">
-        <v>5039</v>
-      </c>
-    </row>
-    <row r="118" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5789</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="74"/>
       <c r="C118" s="75"/>
       <c r="D118" s="14" t="s">
@@ -10893,7 +10893,7 @@
         <v>1161</v>
       </c>
       <c r="J118" s="15">
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="K118" s="15">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="Q118" s="15">
-        <v>6409</v>
-      </c>
-    </row>
-    <row r="119" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7446</v>
+      </c>
+    </row>
+    <row r="119" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="82"/>
       <c r="C119" s="77" t="s">
         <v>52</v>
@@ -10936,10 +10936,10 @@
         <v>4</v>
       </c>
       <c r="I119" s="43">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J119" s="43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K119" s="43">
         <v>0</v>
@@ -10960,10 +10960,10 @@
         <v>0</v>
       </c>
       <c r="Q119" s="43">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="69" t="s">
         <v>54</v>
       </c>
@@ -10982,10 +10982,10 @@
         <v>9345</v>
       </c>
       <c r="I120" s="93">
-        <v>9161</v>
+        <v>9149</v>
       </c>
       <c r="J120" s="93">
-        <v>0</v>
+        <v>8511</v>
       </c>
       <c r="K120" s="93">
         <v>0</v>
@@ -11006,10 +11006,10 @@
         <v>0</v>
       </c>
       <c r="Q120" s="93">
-        <v>46255</v>
-      </c>
-    </row>
-    <row r="121" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54754</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="16"/>
       <c r="C121" s="71" t="s">
         <v>51</v>
@@ -11028,10 +11028,10 @@
         <v>9268</v>
       </c>
       <c r="I121" s="21">
-        <v>9067</v>
+        <v>9068</v>
       </c>
       <c r="J121" s="21">
-        <v>0</v>
+        <v>8384</v>
       </c>
       <c r="K121" s="21">
         <v>0</v>
@@ -11052,10 +11052,10 @@
         <v>0</v>
       </c>
       <c r="Q121" s="21">
-        <v>45848</v>
-      </c>
-    </row>
-    <row r="122" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54233</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="72"/>
       <c r="C122" s="73"/>
       <c r="D122" s="14" t="s">
@@ -11077,7 +11077,7 @@
         <v>7</v>
       </c>
       <c r="J122" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K122" s="15">
         <v>0</v>
@@ -11098,10 +11098,10 @@
         <v>0</v>
       </c>
       <c r="Q122" s="15">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="123" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="72"/>
       <c r="C123" s="73"/>
       <c r="D123" s="14" t="s">
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" s="15">
         <v>0</v>
@@ -11144,10 +11144,10 @@
         <v>0</v>
       </c>
       <c r="Q123" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="72"/>
       <c r="C124" s="73"/>
       <c r="D124" s="14" t="s">
@@ -11169,7 +11169,7 @@
         <v>600</v>
       </c>
       <c r="J124" s="15">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="K124" s="15">
         <v>0</v>
@@ -11190,10 +11190,10 @@
         <v>0</v>
       </c>
       <c r="Q124" s="15">
-        <v>3359</v>
-      </c>
-    </row>
-    <row r="125" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="125" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="74"/>
       <c r="C125" s="75"/>
       <c r="D125" s="14" t="s">
@@ -11215,7 +11215,7 @@
         <v>318</v>
       </c>
       <c r="J125" s="15">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="K125" s="15">
         <v>0</v>
@@ -11236,10 +11236,10 @@
         <v>0</v>
       </c>
       <c r="Q125" s="15">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="126" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="74"/>
       <c r="C126" s="75"/>
       <c r="D126" s="14" t="s">
@@ -11261,7 +11261,7 @@
         <v>9</v>
       </c>
       <c r="J126" s="15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K126" s="15">
         <v>0</v>
@@ -11282,10 +11282,10 @@
         <v>0</v>
       </c>
       <c r="Q126" s="15">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="127" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="74"/>
       <c r="C127" s="75"/>
       <c r="D127" s="14" t="s">
@@ -11307,7 +11307,7 @@
         <v>666</v>
       </c>
       <c r="J127" s="15">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="K127" s="15">
         <v>0</v>
@@ -11328,10 +11328,10 @@
         <v>0</v>
       </c>
       <c r="Q127" s="15">
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="128" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="74"/>
       <c r="C128" s="75"/>
       <c r="D128" s="14" t="s">
@@ -11353,7 +11353,7 @@
         <v>2550</v>
       </c>
       <c r="J128" s="15">
-        <v>0</v>
+        <v>2518</v>
       </c>
       <c r="K128" s="15">
         <v>0</v>
@@ -11374,10 +11374,10 @@
         <v>0</v>
       </c>
       <c r="Q128" s="15">
-        <v>11651</v>
-      </c>
-    </row>
-    <row r="129" spans="2:17" s="1" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14169</v>
+      </c>
+    </row>
+    <row r="129" spans="2:17" s="1" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="74"/>
       <c r="C129" s="75"/>
       <c r="D129" s="14" t="s">
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:17" s="1" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:17" s="1" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="74"/>
       <c r="C130" s="75"/>
       <c r="D130" s="14" t="s">
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="74"/>
       <c r="C131" s="75"/>
       <c r="D131" s="14" t="s">
@@ -11491,7 +11491,7 @@
         <v>2314</v>
       </c>
       <c r="J131" s="15">
-        <v>0</v>
+        <v>2061</v>
       </c>
       <c r="K131" s="15">
         <v>0</v>
@@ -11512,10 +11512,10 @@
         <v>0</v>
       </c>
       <c r="Q131" s="15">
-        <v>10848</v>
-      </c>
-    </row>
-    <row r="132" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12909</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="74"/>
       <c r="C132" s="75"/>
       <c r="D132" s="14" t="s">
@@ -11537,7 +11537,7 @@
         <v>125</v>
       </c>
       <c r="J132" s="15">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="K132" s="15">
         <v>0</v>
@@ -11558,10 +11558,10 @@
         <v>0</v>
       </c>
       <c r="Q132" s="15">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="133" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="74"/>
       <c r="C133" s="75"/>
       <c r="D133" s="14" t="s">
@@ -11583,7 +11583,7 @@
         <v>19</v>
       </c>
       <c r="J133" s="15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K133" s="15">
         <v>0</v>
@@ -11604,10 +11604,10 @@
         <v>0</v>
       </c>
       <c r="Q133" s="15">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="134" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="74"/>
       <c r="C134" s="75"/>
       <c r="D134" s="14" t="s">
@@ -11629,7 +11629,7 @@
         <v>8</v>
       </c>
       <c r="J134" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K134" s="15">
         <v>0</v>
@@ -11650,10 +11650,10 @@
         <v>0</v>
       </c>
       <c r="Q134" s="15">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="74"/>
       <c r="C135" s="75"/>
       <c r="D135" s="14" t="s">
@@ -11675,7 +11675,7 @@
         <v>11</v>
       </c>
       <c r="J135" s="15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K135" s="15">
         <v>0</v>
@@ -11696,10 +11696,10 @@
         <v>0</v>
       </c>
       <c r="Q135" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="136" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="72"/>
       <c r="C136" s="73"/>
       <c r="D136" s="14" t="s">
@@ -11718,10 +11718,10 @@
         <v>983</v>
       </c>
       <c r="I136" s="15">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J136" s="15">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="K136" s="15">
         <v>0</v>
@@ -11742,10 +11742,10 @@
         <v>0</v>
       </c>
       <c r="Q136" s="15">
-        <v>5830</v>
-      </c>
-    </row>
-    <row r="137" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6734</v>
+      </c>
+    </row>
+    <row r="137" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="16"/>
       <c r="C137" s="87"/>
       <c r="D137" s="14" t="s">
@@ -11767,7 +11767,7 @@
         <v>1582</v>
       </c>
       <c r="J137" s="15">
-        <v>0</v>
+        <v>1376</v>
       </c>
       <c r="K137" s="15">
         <v>0</v>
@@ -11788,10 +11788,10 @@
         <v>0</v>
       </c>
       <c r="Q137" s="15">
-        <v>8352</v>
-      </c>
-    </row>
-    <row r="138" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9728</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="76"/>
       <c r="C138" s="77" t="s">
         <v>52</v>
@@ -11810,10 +11810,10 @@
         <v>77</v>
       </c>
       <c r="I138" s="43">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J138" s="43">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="K138" s="43">
         <v>0</v>
@@ -11834,10 +11834,10 @@
         <v>0</v>
       </c>
       <c r="Q138" s="43">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="139" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="139" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="69" t="s">
         <v>55</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>1943</v>
       </c>
       <c r="J139" s="93">
-        <v>0</v>
+        <v>1963</v>
       </c>
       <c r="K139" s="93">
         <v>0</v>
@@ -11880,10 +11880,10 @@
         <v>0</v>
       </c>
       <c r="Q139" s="93">
-        <v>9672</v>
-      </c>
-    </row>
-    <row r="140" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11635</v>
+      </c>
+    </row>
+    <row r="140" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="16"/>
       <c r="C140" s="71" t="s">
         <v>51</v>
@@ -11905,7 +11905,7 @@
         <v>1919</v>
       </c>
       <c r="J140" s="21">
-        <v>0</v>
+        <v>1908</v>
       </c>
       <c r="K140" s="21">
         <v>0</v>
@@ -11926,10 +11926,10 @@
         <v>0</v>
       </c>
       <c r="Q140" s="21">
-        <v>9537</v>
-      </c>
-    </row>
-    <row r="141" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11445</v>
+      </c>
+    </row>
+    <row r="141" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="16"/>
       <c r="C141" s="87"/>
       <c r="D141" s="14" t="s">
@@ -11951,7 +11951,7 @@
         <v>254</v>
       </c>
       <c r="J141" s="15">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="K141" s="15">
         <v>0</v>
@@ -11972,10 +11972,10 @@
         <v>0</v>
       </c>
       <c r="Q141" s="15">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="142" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="142" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="16"/>
       <c r="C142" s="87"/>
       <c r="D142" s="14" t="s">
@@ -11997,7 +11997,7 @@
         <v>213</v>
       </c>
       <c r="J142" s="15">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="K142" s="15">
         <v>0</v>
@@ -12018,10 +12018,10 @@
         <v>0</v>
       </c>
       <c r="Q142" s="15">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="143" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="16"/>
       <c r="C143" s="87"/>
       <c r="D143" s="14" t="s">
@@ -12043,7 +12043,7 @@
         <v>524</v>
       </c>
       <c r="J143" s="15">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="K143" s="15">
         <v>0</v>
@@ -12064,10 +12064,10 @@
         <v>0</v>
       </c>
       <c r="Q143" s="15">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="144" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="144" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="16"/>
       <c r="C144" s="87"/>
       <c r="D144" s="14" t="s">
@@ -12089,7 +12089,7 @@
         <v>790</v>
       </c>
       <c r="J144" s="15">
-        <v>0</v>
+        <v>841</v>
       </c>
       <c r="K144" s="15">
         <v>0</v>
@@ -12110,10 +12110,10 @@
         <v>0</v>
       </c>
       <c r="Q144" s="15">
-        <v>4179</v>
-      </c>
-    </row>
-    <row r="145" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="145" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="16"/>
       <c r="C145" s="87"/>
       <c r="D145" s="14" t="s">
@@ -12135,7 +12135,7 @@
         <v>107</v>
       </c>
       <c r="J145" s="15">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="K145" s="15">
         <v>0</v>
@@ -12156,10 +12156,10 @@
         <v>0</v>
       </c>
       <c r="Q145" s="15">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="146" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="146" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="16"/>
       <c r="C146" s="87"/>
       <c r="D146" s="14" t="s">
@@ -12181,7 +12181,7 @@
         <v>31</v>
       </c>
       <c r="J146" s="15">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K146" s="15">
         <v>0</v>
@@ -12202,10 +12202,10 @@
         <v>0</v>
       </c>
       <c r="Q146" s="15">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="147" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="147" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="76"/>
       <c r="C147" s="77" t="s">
         <v>52</v>
@@ -12227,7 +12227,7 @@
         <v>24</v>
       </c>
       <c r="J147" s="43">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K147" s="43">
         <v>0</v>
@@ -12248,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="Q147" s="43">
-        <v>135</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -12264,25 +12264,25 @@
   </sheetPr>
   <dimension ref="B2:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="1"/>
-    <col min="6" max="6" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1"/>
-    <col min="8" max="14" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="1"/>
+    <col min="8" max="14" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B2" s="91" t="s">
         <v>15</v>
       </c>
@@ -12302,7 +12302,7 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B3" s="19"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -12320,7 +12320,7 @@
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
         <v>26</v>
@@ -12342,7 +12342,7 @@
       <c r="P5" s="53"/>
       <c r="Q5" s="23"/>
     </row>
-    <row r="6" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
       <c r="D6" s="4" t="s">
@@ -12386,7 +12386,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>51534</v>
       </c>
       <c r="I7" s="20">
-        <v>0</v>
+        <v>50680</v>
       </c>
       <c r="J7" s="20">
         <v>0</v>
@@ -12428,11 +12428,11 @@
         <v>0</v>
       </c>
       <c r="P7" s="20">
-        <v>213469</v>
+        <v>264149</v>
       </c>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>48075</v>
       </c>
       <c r="I8" s="21">
-        <v>0</v>
+        <v>47526</v>
       </c>
       <c r="J8" s="21">
         <v>0</v>
@@ -12474,11 +12474,11 @@
         <v>0</v>
       </c>
       <c r="P8" s="21">
-        <v>199917</v>
+        <v>247443</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16"/>
       <c r="C9" s="14" t="s">
         <v>30</v>
@@ -12499,7 +12499,7 @@
         <v>38923</v>
       </c>
       <c r="I9" s="15">
-        <v>0</v>
+        <v>39164</v>
       </c>
       <c r="J9" s="15">
         <v>0</v>
@@ -12520,11 +12520,11 @@
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <v>159187</v>
+        <v>198351</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="16"/>
       <c r="C10" s="14" t="s">
         <v>31</v>
@@ -12545,7 +12545,7 @@
         <v>9152</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
+        <v>8362</v>
       </c>
       <c r="J10" s="15">
         <v>0</v>
@@ -12566,11 +12566,11 @@
         <v>0</v>
       </c>
       <c r="P10" s="15">
-        <v>40730</v>
+        <v>49092</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>2831</v>
       </c>
       <c r="I11" s="21">
-        <v>0</v>
+        <v>2525</v>
       </c>
       <c r="J11" s="21">
         <v>0</v>
@@ -12612,11 +12612,11 @@
         <v>0</v>
       </c>
       <c r="P11" s="21">
-        <v>10919</v>
+        <v>13444</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16"/>
       <c r="C12" s="14" t="s">
         <v>33</v>
@@ -12637,7 +12637,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J12" s="15">
         <v>0</v>
@@ -12658,11 +12658,11 @@
         <v>0</v>
       </c>
       <c r="P12" s="15">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16"/>
       <c r="C13" s="14" t="s">
         <v>56</v>
@@ -12683,7 +12683,7 @@
         <v>471</v>
       </c>
       <c r="I13" s="15">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="J13" s="15">
         <v>0</v>
@@ -12704,11 +12704,11 @@
         <v>0</v>
       </c>
       <c r="P13" s="15">
-        <v>1474</v>
+        <v>1649</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16"/>
       <c r="C14" s="14" t="s">
         <v>35</v>
@@ -12729,7 +12729,7 @@
         <v>135</v>
       </c>
       <c r="I14" s="15">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J14" s="15">
         <v>0</v>
@@ -12750,11 +12750,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="15">
-        <v>362</v>
+        <v>424</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16"/>
       <c r="C15" s="14" t="s">
         <v>36</v>
@@ -12775,7 +12775,7 @@
         <v>618</v>
       </c>
       <c r="I15" s="15">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="J15" s="15">
         <v>0</v>
@@ -12796,11 +12796,11 @@
         <v>0</v>
       </c>
       <c r="P15" s="15">
-        <v>2464</v>
+        <v>2986</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16"/>
       <c r="C16" s="14" t="s">
         <v>37</v>
@@ -12821,7 +12821,7 @@
         <v>1581</v>
       </c>
       <c r="I16" s="15">
-        <v>0</v>
+        <v>1748</v>
       </c>
       <c r="J16" s="15">
         <v>0</v>
@@ -12842,11 +12842,11 @@
         <v>0</v>
       </c>
       <c r="P16" s="15">
-        <v>6502</v>
+        <v>8250</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>38</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>628</v>
       </c>
       <c r="I17" s="21">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="J17" s="21">
         <v>0</v>
@@ -12888,11 +12888,11 @@
         <v>0</v>
       </c>
       <c r="P17" s="21">
-        <v>2633</v>
+        <v>3262</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="44"/>
       <c r="C18" s="45" t="s">
         <v>57</v>
@@ -12913,7 +12913,7 @@
         <v>229</v>
       </c>
       <c r="I18" s="42">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="J18" s="42">
         <v>0</v>
@@ -12934,11 +12934,11 @@
         <v>0</v>
       </c>
       <c r="P18" s="15">
-        <v>1135</v>
+        <v>1355</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
       <c r="C19" s="11" t="s">
         <v>58</v>
@@ -12959,7 +12959,7 @@
         <v>399</v>
       </c>
       <c r="I19" s="41">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="J19" s="41">
         <v>0</v>
@@ -12980,7 +12980,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="33">
-        <v>1498</v>
+        <v>1907</v>
       </c>
       <c r="Q19" s="3"/>
     </row>
@@ -12998,24 +12998,24 @@
   <dimension ref="B3:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="1"/>
-    <col min="6" max="6" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1"/>
-    <col min="8" max="14" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="1"/>
+    <col min="8" max="14" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B3" s="91" t="s">
         <v>16</v>
       </c>
@@ -13035,7 +13035,7 @@
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="2:17" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B4" s="19"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -13053,7 +13053,7 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
     </row>
-    <row r="6" spans="2:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
         <v>26</v>
@@ -13075,7 +13075,7 @@
       <c r="P6" s="53"/>
       <c r="Q6" s="23"/>
     </row>
-    <row r="7" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="12"/>
       <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
@@ -13119,7 +13119,7 @@
       </c>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>214749</v>
       </c>
       <c r="I8" s="20">
-        <v>0</v>
+        <v>200764</v>
       </c>
       <c r="J8" s="20">
         <v>0</v>
@@ -13161,11 +13161,11 @@
         <v>0</v>
       </c>
       <c r="P8" s="20">
-        <v>1025899</v>
+        <v>1226663</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>199502</v>
       </c>
       <c r="I9" s="21">
-        <v>0</v>
+        <v>186695</v>
       </c>
       <c r="J9" s="21">
         <v>0</v>
@@ -13207,11 +13207,11 @@
         <v>0</v>
       </c>
       <c r="P9" s="21">
-        <v>957855</v>
+        <v>1144550</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="16"/>
       <c r="C10" s="14" t="s">
         <v>30</v>
@@ -13232,7 +13232,7 @@
         <v>154956</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
+        <v>144302</v>
       </c>
       <c r="J10" s="15">
         <v>0</v>
@@ -13253,11 +13253,11 @@
         <v>0</v>
       </c>
       <c r="P10" s="15">
-        <v>758579</v>
+        <v>902881</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16"/>
       <c r="C11" s="14" t="s">
         <v>31</v>
@@ -13278,7 +13278,7 @@
         <v>44546</v>
       </c>
       <c r="I11" s="15">
-        <v>0</v>
+        <v>42393</v>
       </c>
       <c r="J11" s="15">
         <v>0</v>
@@ -13299,11 +13299,11 @@
         <v>0</v>
       </c>
       <c r="P11" s="15">
-        <v>199276</v>
+        <v>241669</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
         <v>32</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>12327</v>
       </c>
       <c r="I12" s="21">
-        <v>0</v>
+        <v>11293</v>
       </c>
       <c r="J12" s="21">
         <v>0</v>
@@ -13345,11 +13345,11 @@
         <v>0</v>
       </c>
       <c r="P12" s="21">
-        <v>55078</v>
+        <v>66371</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16"/>
       <c r="C13" s="14" t="s">
         <v>33</v>
@@ -13370,7 +13370,7 @@
         <v>100</v>
       </c>
       <c r="I13" s="15">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="J13" s="15">
         <v>0</v>
@@ -13391,11 +13391,11 @@
         <v>0</v>
       </c>
       <c r="P13" s="15">
-        <v>325</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="16"/>
       <c r="C14" s="14" t="s">
         <v>34</v>
@@ -13416,7 +13416,7 @@
         <v>1502</v>
       </c>
       <c r="I14" s="15">
-        <v>0</v>
+        <v>1322</v>
       </c>
       <c r="J14" s="15">
         <v>0</v>
@@ -13437,11 +13437,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="15">
-        <v>7411</v>
+        <v>8733</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16"/>
       <c r="C15" s="14" t="s">
         <v>35</v>
@@ -13462,7 +13462,7 @@
         <v>788</v>
       </c>
       <c r="I15" s="15">
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="J15" s="15">
         <v>0</v>
@@ -13483,11 +13483,11 @@
         <v>0</v>
       </c>
       <c r="P15" s="15">
-        <v>2836</v>
+        <v>3440</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16"/>
       <c r="C16" s="14" t="s">
         <v>36</v>
@@ -13508,7 +13508,7 @@
         <v>3930</v>
       </c>
       <c r="I16" s="15">
-        <v>0</v>
+        <v>3808</v>
       </c>
       <c r="J16" s="15">
         <v>0</v>
@@ -13529,11 +13529,11 @@
         <v>0</v>
       </c>
       <c r="P16" s="15">
-        <v>16183</v>
+        <v>19991</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16"/>
       <c r="C17" s="14" t="s">
         <v>37</v>
@@ -13554,7 +13554,7 @@
         <v>6007</v>
       </c>
       <c r="I17" s="15">
-        <v>0</v>
+        <v>5435</v>
       </c>
       <c r="J17" s="15">
         <v>0</v>
@@ -13575,11 +13575,11 @@
         <v>0</v>
       </c>
       <c r="P17" s="15">
-        <v>28323</v>
+        <v>33758</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
         <v>38</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>2920</v>
       </c>
       <c r="I18" s="21">
-        <v>0</v>
+        <v>2776</v>
       </c>
       <c r="J18" s="21">
         <v>0</v>
@@ -13621,11 +13621,11 @@
         <v>0</v>
       </c>
       <c r="P18" s="21">
-        <v>12966</v>
+        <v>15742</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="44"/>
       <c r="C19" s="45" t="s">
         <v>57</v>
@@ -13646,7 +13646,7 @@
         <v>539</v>
       </c>
       <c r="I19" s="42">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="J19" s="42">
         <v>0</v>
@@ -13667,11 +13667,11 @@
         <v>0</v>
       </c>
       <c r="P19" s="15">
-        <v>3030</v>
+        <v>3503</v>
       </c>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
       <c r="C20" s="11" t="s">
         <v>58</v>
@@ -13692,7 +13692,7 @@
         <v>2381</v>
       </c>
       <c r="I20" s="41">
-        <v>0</v>
+        <v>2303</v>
       </c>
       <c r="J20" s="41">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="33">
-        <v>9936</v>
+        <v>12239</v>
       </c>
       <c r="Q20" s="3"/>
     </row>
@@ -13730,22 +13730,22 @@
   </sheetPr>
   <dimension ref="B2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B2" s="91" t="s">
         <v>59</v>
       </c>
@@ -13765,7 +13765,7 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" ht="18.5" x14ac:dyDescent="0.35">
       <c r="B3" s="19"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -13783,12 +13783,12 @@
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="P4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
         <v>26</v>
@@ -13810,7 +13810,7 @@
       <c r="P5" s="53"/>
       <c r="Q5" s="23"/>
     </row>
-    <row r="6" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12"/>
       <c r="C6" s="11"/>
       <c r="D6" s="4" t="s">
@@ -13854,7 +13854,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>731</v>
       </c>
       <c r="I7" s="20">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="J7" s="20">
         <v>0</v>
@@ -13896,11 +13896,11 @@
         <v>0</v>
       </c>
       <c r="P7" s="20">
-        <v>4164</v>
+        <v>5151</v>
       </c>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16"/>
       <c r="C9" s="14" t="s">
         <v>30</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="16"/>
       <c r="C10" s="14" t="s">
         <v>31</v>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>539</v>
       </c>
       <c r="I11" s="21">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="J11" s="21">
         <v>0</v>
@@ -14080,11 +14080,11 @@
         <v>0</v>
       </c>
       <c r="P11" s="21">
-        <v>3024</v>
+        <v>3679</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="104" t="s">
         <v>38</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>192</v>
       </c>
       <c r="I12" s="43">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="J12" s="43">
         <v>0</v>
@@ -14126,21 +14126,21 @@
         <v>0</v>
       </c>
       <c r="P12" s="43">
-        <v>1140</v>
+        <v>1472</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
-    <row r="16" spans="2:17" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B16" s="91" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="P18" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
         <v>26</v>
@@ -14161,7 +14161,7 @@
       <c r="O19" s="52"/>
       <c r="P19" s="53"/>
     </row>
-    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
       <c r="C20" s="11"/>
       <c r="D20" s="4" t="s">
@@ -14204,7 +14204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="105" t="s">
         <v>28</v>
       </c>
@@ -14222,10 +14222,10 @@
         <v>1171494.4460476199</v>
       </c>
       <c r="H21" s="106">
-        <v>1317382.4054358094</v>
+        <v>1331444.9154358092</v>
       </c>
       <c r="I21" s="106">
-        <v>0</v>
+        <v>1231109.2968511879</v>
       </c>
       <c r="J21" s="106">
         <v>0</v>
@@ -14246,20 +14246,20 @@
         <v>0</v>
       </c>
       <c r="P21" s="106">
-        <v>5603536.8478646297</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="23.4" x14ac:dyDescent="0.3">
+        <v>6848708.6547158174</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B25" s="91" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="O27" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="21" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
       <c r="C28" s="7" t="s">
         <v>26</v>
@@ -14280,7 +14280,7 @@
       <c r="O28" s="53"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="12"/>
       <c r="C29" s="11"/>
       <c r="D29" s="4" t="s">
@@ -14321,7 +14321,7 @@
       </c>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="105" t="s">
         <v>28</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>109323</v>
       </c>
       <c r="I30" s="106">
-        <v>0</v>
+        <v>108861</v>
       </c>
       <c r="J30" s="106">
         <v>0</v>
@@ -14368,4 +14368,10 @@
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="41" fitToHeight="11" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{004a48ba-3882-4361-9219-a4b2e56c0a91}" enabled="0" method="" siteId="{004a48ba-3882-4361-9219-a4b2e56c0a91}" removed="1"/>
+</clbl:labelList>
 </file>